--- a/ledger - kelas 3.xlsx
+++ b/ledger - kelas 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7890" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ANGKA (Input Nilai)" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="160">
   <si>
     <t>NIS</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>Alhamdulillah ananda Nando dapat memahami materi adab dengan baik, dan adabnya dalam belajar pun terjaga. Semoga ananda dapat menerapkan materi yang dipelajari dengan baik dimanapun ananda berada</t>
+  </si>
+  <si>
+    <t>Alhamdulillah Ananda dapat menghafal hadits arbain dengan baik, lebih banyak muroja'ah lagi agar hafalan yang ada tidak hilang, pertahankan hafalan yang ada, teruslah menjaga adab ketika belajar, agar ilmunya semakin berkah.</t>
   </si>
   <si>
     <t>Al Hamdulillah, ananda mampu memahami  materi mu'amalah, makanan dan penyembelihan dengan baik.  Tetap semangat dalam menuntut ilmu dan semoga ilmu yang didapatkan bisa menjadi landasan dalam beramal. Amin Yaa Rabbal 'Alamin</t>
@@ -508,11 +511,11 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -565,13 +568,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -604,16 +600,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,14 +617,90 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,46 +715,20 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,56 +743,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="42">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -816,19 +812,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,73 +836,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,7 +854,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,67 +950,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,11 +1078,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1131,7 +1097,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1160,6 +1126,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1171,6 +1146,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1189,186 +1175,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="40" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1409,15 +1369,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1466,10 +1417,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1484,7 +1435,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1502,26 +1453,26 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1539,34 +1490,34 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -1975,20 +1926,20 @@
   <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2:N14"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="55"/>
-    <col min="2" max="2" width="43.5666666666667" style="55" customWidth="1"/>
-    <col min="3" max="24" width="10.425" style="56" customWidth="1"/>
-    <col min="25" max="27" width="10.425" style="55" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="55"/>
+    <col min="1" max="1" width="9" style="52"/>
+    <col min="2" max="2" width="43.5666666666667" style="52" customWidth="1"/>
+    <col min="3" max="24" width="10.425" style="53" customWidth="1"/>
+    <col min="25" max="27" width="10.425" style="52" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -1998,794 +1949,850 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="N1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="O1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="P1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="47" t="s">
+      <c r="S1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="47" t="s">
+      <c r="T1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="48" t="s">
+      <c r="U1" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="48" t="s">
+      <c r="V1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="51" t="s">
+      <c r="W1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="51" t="s">
+      <c r="X1" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="65" t="s">
+      <c r="Y1" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="65" t="s">
+      <c r="Z1" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="65" t="s">
+      <c r="AA1" s="62" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" s="54" customFormat="1" spans="1:27">
-      <c r="A2" s="37" t="s">
+    <row r="2" s="51" customFormat="1" spans="1:27">
+      <c r="A2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="59">
+      <c r="C2" s="56">
         <v>79.0875</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="59">
+      <c r="E2" s="56">
         <v>93.42</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="59">
+      <c r="G2" s="56">
         <v>81.95</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59">
+      <c r="I2" s="56">
+        <v>84.5</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="56">
         <v>81.3514285714286</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="L2" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="59">
+      <c r="M2" s="56">
         <v>75.6071428571429</v>
       </c>
-      <c r="N2" s="59" t="s">
+      <c r="N2" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="59">
+      <c r="O2" s="56">
         <v>80.3978571428571</v>
       </c>
-      <c r="P2" s="59" t="s">
+      <c r="P2" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="67"/>
-    </row>
-    <row r="3" s="54" customFormat="1" spans="1:27">
-      <c r="A3" s="37" t="s">
+      <c r="Q2" s="59"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="64"/>
+    </row>
+    <row r="3" s="51" customFormat="1" spans="1:27">
+      <c r="A3" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="56">
         <v>89.8875</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="59">
+      <c r="E3" s="56">
         <v>94.095</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="59">
+      <c r="G3" s="56">
         <v>86.375</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59">
+      <c r="I3" s="56">
+        <v>89.3928571428571</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="56">
         <v>86.6191428571429</v>
       </c>
-      <c r="L3" s="59" t="s">
+      <c r="L3" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="59">
+      <c r="M3" s="56">
         <v>85.3121428571429</v>
       </c>
-      <c r="N3" s="59" t="s">
+      <c r="N3" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="59">
+      <c r="O3" s="56">
         <v>85.68</v>
       </c>
-      <c r="P3" s="59" t="s">
+      <c r="P3" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="69"/>
-    </row>
-    <row r="4" s="54" customFormat="1" spans="1:27">
-      <c r="A4" s="37" t="s">
+      <c r="Q3" s="59"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="66"/>
+    </row>
+    <row r="4" s="51" customFormat="1" spans="1:27">
+      <c r="A4" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="59">
+      <c r="C4" s="56">
         <v>94.095</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="59">
+      <c r="E4" s="56">
         <v>94.365</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="59">
+      <c r="G4" s="56">
         <v>87.55</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59">
+      <c r="I4" s="56">
+        <v>91.75</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="56">
         <v>88.8601428571429</v>
       </c>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="59">
+      <c r="M4" s="56">
         <v>86.11</v>
       </c>
-      <c r="N4" s="59" t="s">
+      <c r="N4" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="59">
+      <c r="O4" s="56">
         <v>87.435</v>
       </c>
-      <c r="P4" s="59" t="s">
+      <c r="P4" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="68"/>
-      <c r="AA4" s="69"/>
-    </row>
-    <row r="5" s="54" customFormat="1" spans="1:27">
-      <c r="A5" s="37" t="s">
+      <c r="Q4" s="59"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="66"/>
+    </row>
+    <row r="5" s="51" customFormat="1" spans="1:27">
+      <c r="A5" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="59">
+      <c r="C5" s="56">
         <v>84.715</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="56">
         <v>93.06</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="59">
+      <c r="G5" s="56">
         <v>83.75</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59">
+      <c r="I5" s="56">
+        <v>89.7857142857143</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="56">
         <v>88.5964285714286</v>
       </c>
-      <c r="L5" s="59" t="s">
+      <c r="L5" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="59">
+      <c r="M5" s="56">
         <v>79.0889285714286</v>
       </c>
-      <c r="N5" s="59" t="s">
+      <c r="N5" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="59">
+      <c r="O5" s="56">
         <v>85.8271428571429</v>
       </c>
-      <c r="P5" s="59" t="s">
+      <c r="P5" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="63"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="63"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="68"/>
-      <c r="Z5" s="68"/>
-      <c r="AA5" s="69"/>
-    </row>
-    <row r="6" s="54" customFormat="1" spans="1:27">
-      <c r="A6" s="37" t="s">
+      <c r="Q5" s="59"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="65"/>
+      <c r="Z5" s="65"/>
+      <c r="AA5" s="66"/>
+    </row>
+    <row r="6" s="51" customFormat="1" spans="1:27">
+      <c r="A6" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="59">
+      <c r="C6" s="56">
         <v>92.0025</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="59">
+      <c r="E6" s="56">
         <v>93.78</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="59">
+      <c r="G6" s="56">
         <v>84.65</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59">
+      <c r="I6" s="56">
+        <v>89.3928571428571</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="56">
         <v>87.547</v>
       </c>
-      <c r="L6" s="59" t="s">
+      <c r="L6" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="59">
+      <c r="M6" s="56">
         <v>84.1428571428571</v>
       </c>
-      <c r="N6" s="59" t="s">
+      <c r="N6" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="59">
+      <c r="O6" s="56">
         <v>87.7535714285714</v>
       </c>
-      <c r="P6" s="59" t="s">
+      <c r="P6" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="63"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="69"/>
-    </row>
-    <row r="7" s="54" customFormat="1" spans="1:27">
-      <c r="A7" s="37" t="s">
+      <c r="Q6" s="59"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="66"/>
+    </row>
+    <row r="7" s="51" customFormat="1" spans="1:27">
+      <c r="A7" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C7" s="56">
         <v>83.5875</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="59">
+      <c r="E7" s="56">
         <v>93.825</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="59">
+      <c r="G7" s="56">
         <v>83.3</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="H7" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59">
+      <c r="I7" s="56">
+        <v>89.7857142857143</v>
+      </c>
+      <c r="J7" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="56">
         <v>86.9647142857143</v>
       </c>
-      <c r="L7" s="59" t="s">
+      <c r="L7" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="59">
+      <c r="M7" s="56">
         <v>81.5857142857143</v>
       </c>
-      <c r="N7" s="59" t="s">
+      <c r="N7" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="59">
+      <c r="O7" s="56">
         <v>83.2085714285714</v>
       </c>
-      <c r="P7" s="59" t="s">
+      <c r="P7" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="63"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="68"/>
-      <c r="AA7" s="69"/>
-    </row>
-    <row r="8" s="54" customFormat="1" spans="1:27">
-      <c r="A8" s="37" t="s">
+      <c r="Q7" s="59"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="66"/>
+    </row>
+    <row r="8" s="51" customFormat="1" spans="1:27">
+      <c r="A8" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="59">
+      <c r="C8" s="56">
         <v>81.045</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="59">
+      <c r="E8" s="56">
         <v>93.15</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="59">
+      <c r="G8" s="56">
         <v>80.3</v>
       </c>
-      <c r="H8" s="59" t="s">
+      <c r="H8" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59">
+      <c r="I8" s="56">
+        <v>85.9642857142857</v>
+      </c>
+      <c r="J8" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="56">
         <v>86.3401428571429</v>
       </c>
-      <c r="L8" s="59" t="s">
+      <c r="L8" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="59">
+      <c r="M8" s="56">
         <v>79.2660714285714</v>
       </c>
-      <c r="N8" s="59" t="s">
+      <c r="N8" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="59">
+      <c r="O8" s="56">
         <v>85.6385714285714</v>
       </c>
-      <c r="P8" s="59" t="s">
+      <c r="P8" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="63"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="63"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="68"/>
-      <c r="AA8" s="69"/>
-    </row>
-    <row r="9" s="54" customFormat="1" spans="1:27">
-      <c r="A9" s="37" t="s">
+      <c r="Q8" s="59"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="60"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="65"/>
+      <c r="AA8" s="66"/>
+    </row>
+    <row r="9" s="51" customFormat="1" spans="1:27">
+      <c r="A9" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="56">
         <v>92.0475</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="56">
         <v>94.365</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="59">
+      <c r="G9" s="56">
         <v>86.35</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59">
+      <c r="I9" s="56">
+        <v>90.9642857142857</v>
+      </c>
+      <c r="J9" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="56">
         <v>87.3337142857143</v>
       </c>
-      <c r="L9" s="59" t="s">
+      <c r="L9" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="59">
+      <c r="M9" s="56">
         <v>87.3335714285714</v>
       </c>
-      <c r="N9" s="59" t="s">
+      <c r="N9" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="59">
+      <c r="O9" s="56">
         <v>87.4714285714286</v>
       </c>
-      <c r="P9" s="59" t="s">
+      <c r="P9" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="63"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="68"/>
-      <c r="Z9" s="68"/>
-      <c r="AA9" s="69"/>
-    </row>
-    <row r="10" s="54" customFormat="1" spans="1:27">
-      <c r="A10" s="37" t="s">
+      <c r="Q9" s="59"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="66"/>
+    </row>
+    <row r="10" s="51" customFormat="1" spans="1:27">
+      <c r="A10" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="56">
         <v>91.555</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="56">
         <v>94.23</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="59">
+      <c r="G10" s="56">
         <v>86.45</v>
       </c>
-      <c r="H10" s="59" t="s">
+      <c r="H10" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59">
+      <c r="I10" s="56">
+        <v>91.3571428571429</v>
+      </c>
+      <c r="J10" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="56">
         <v>84.0487142857143</v>
       </c>
-      <c r="L10" s="59" t="s">
+      <c r="L10" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="59">
+      <c r="M10" s="56">
         <v>84.2621428571429</v>
       </c>
-      <c r="N10" s="59" t="s">
+      <c r="N10" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="59">
+      <c r="O10" s="56">
         <v>85.7285714285714</v>
       </c>
-      <c r="P10" s="59" t="s">
+      <c r="P10" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="63"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="63"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="68"/>
-      <c r="Z10" s="68"/>
-      <c r="AA10" s="69"/>
-    </row>
-    <row r="11" s="54" customFormat="1" spans="1:27">
-      <c r="A11" s="37" t="s">
+      <c r="Q10" s="59"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="66"/>
+    </row>
+    <row r="11" s="51" customFormat="1" spans="1:27">
+      <c r="A11" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="56">
         <v>83.5675</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="56">
         <v>92.295</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="59">
+      <c r="G11" s="56">
         <v>83.75</v>
       </c>
-      <c r="H11" s="59" t="s">
+      <c r="H11" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59">
+      <c r="I11" s="56">
+        <v>86.75</v>
+      </c>
+      <c r="J11" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="56">
         <v>82.687</v>
       </c>
-      <c r="L11" s="59" t="s">
+      <c r="L11" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="59">
+      <c r="M11" s="56">
         <v>78.6528571428572</v>
       </c>
-      <c r="N11" s="59" t="s">
+      <c r="N11" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="O11" s="59">
+      <c r="O11" s="56">
         <v>81.7235714285714</v>
       </c>
-      <c r="P11" s="59" t="s">
+      <c r="P11" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="63"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="68"/>
-      <c r="AA11" s="69"/>
-    </row>
-    <row r="12" s="54" customFormat="1" spans="1:27">
-      <c r="A12" s="37" t="s">
+      <c r="Q11" s="59"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="60"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="66"/>
+    </row>
+    <row r="12" s="51" customFormat="1" spans="1:27">
+      <c r="A12" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="59">
+      <c r="C12" s="56">
         <v>91.5075</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="59">
+      <c r="E12" s="56">
         <v>94.14</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="59">
+      <c r="G12" s="56">
         <v>85.1</v>
       </c>
-      <c r="H12" s="59" t="s">
+      <c r="H12" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59">
+      <c r="I12" s="56">
+        <v>91.3571428571429</v>
+      </c>
+      <c r="J12" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="56">
         <v>91.3801428571429</v>
       </c>
-      <c r="L12" s="59" t="s">
+      <c r="L12" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="M12" s="59">
+      <c r="M12" s="56">
         <v>88.6057142857143</v>
       </c>
-      <c r="N12" s="59" t="s">
+      <c r="N12" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="O12" s="59">
+      <c r="O12" s="56">
         <v>88.38</v>
       </c>
-      <c r="P12" s="59" t="s">
+      <c r="P12" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="63"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="69"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="66"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="53">
         <v>93.285</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="53">
         <v>94.5</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="56">
+      <c r="G13" s="53">
         <v>86</v>
       </c>
-      <c r="H13" s="56" t="s">
+      <c r="H13" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="56">
+      <c r="I13" s="53">
+        <v>91.3571428571429</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="53">
         <v>90.9751428571429</v>
       </c>
-      <c r="L13" s="56" t="s">
+      <c r="L13" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="M13" s="56">
+      <c r="M13" s="53">
         <v>89.6660714285714</v>
       </c>
-      <c r="N13" s="56" t="s">
+      <c r="N13" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="56">
+      <c r="O13" s="53">
         <v>87.4714285714286</v>
       </c>
-      <c r="P13" s="56" t="s">
+      <c r="P13" s="53" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="53">
         <v>87.5925</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="53">
         <v>93.69</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="56">
+      <c r="G14" s="53">
         <v>82.85</v>
       </c>
-      <c r="H14" s="56" t="s">
+      <c r="H14" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="56">
+      <c r="I14" s="53">
+        <v>91.3571428571429</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="53">
         <v>84.3997142857143</v>
       </c>
-      <c r="L14" s="56" t="s">
+      <c r="L14" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="56">
+      <c r="M14" s="53">
         <v>85.0075</v>
       </c>
-      <c r="N14" s="56" t="s">
+      <c r="N14" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="56">
+      <c r="O14" s="53">
         <v>88.92</v>
       </c>
-      <c r="P14" s="56" t="s">
+      <c r="P14" s="53" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2803,21 +2810,21 @@
   </sheetPr>
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.8583333333333" style="33" customWidth="1"/>
+    <col min="1" max="1" width="10.8583333333333" style="30" customWidth="1"/>
     <col min="2" max="2" width="28.2833333333333" customWidth="1"/>
-    <col min="3" max="11" width="35.7083333333333" style="34" customWidth="1"/>
-    <col min="12" max="12" width="37.425" style="34" customWidth="1"/>
-    <col min="13" max="13" width="35.7083333333333" style="34" customWidth="1"/>
+    <col min="3" max="11" width="35.7083333333333" style="31" customWidth="1"/>
+    <col min="12" max="12" width="37.425" style="31" customWidth="1"/>
+    <col min="13" max="13" width="35.7083333333333" style="31" customWidth="1"/>
     <col min="14" max="14" width="35.8583333333333" customWidth="1"/>
     <col min="18" max="18" width="23.7083333333333" customWidth="1"/>
   </cols>
@@ -2829,497 +2836,519 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="N1" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="O1" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="P1" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="52" t="s">
+      <c r="Q1" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="R1" s="52" t="s">
+      <c r="R1" s="49" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="180.75" spans="1:18">
-      <c r="A2" s="37" t="str">
+      <c r="A2" s="34" t="str">
         <f>'ANGKA (Input Nilai)'!A2</f>
         <v>21.02.019</v>
       </c>
-      <c r="B2" s="37" t="str">
+      <c r="B2" s="34" t="str">
         <f>'ANGKA (Input Nilai)'!B2</f>
         <v>ARVIANDOW FEBRIANSYAH</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="44" t="s">
+      <c r="F2" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="G2" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="H2" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="53" t="s">
+      <c r="I2" s="46" t="s">
         <v>79</v>
       </c>
+      <c r="J2" s="35"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="50" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="210.75" spans="1:18">
-      <c r="A3" s="37" t="str">
+      <c r="A3" s="34" t="str">
         <f>'ANGKA (Input Nilai)'!A3</f>
         <v>21.02.020</v>
       </c>
-      <c r="B3" s="37" t="str">
+      <c r="B3" s="34" t="str">
         <f>'ANGKA (Input Nilai)'!B3</f>
         <v>AYATURRAHMAN SHINRA AUFA</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="35"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="53" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="210.75" spans="1:18">
-      <c r="A4" s="37" t="str">
+      <c r="A4" s="34" t="str">
         <f>'ANGKA (Input Nilai)'!A4</f>
         <v>21.02.021</v>
       </c>
-      <c r="B4" s="37" t="str">
+      <c r="B4" s="34" t="str">
         <f>'ANGKA (Input Nilai)'!B4</f>
         <v>HAZWAN HAFIZUDDIN</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="35"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="I4" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="53" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="210.75" spans="1:18">
-      <c r="A5" s="37" t="str">
+      <c r="A5" s="34" t="str">
         <f>'ANGKA (Input Nilai)'!A5</f>
         <v>21.02.022</v>
       </c>
-      <c r="B5" s="37" t="str">
+      <c r="B5" s="34" t="str">
         <f>'ANGKA (Input Nilai)'!B5</f>
         <v>KHALID GHAZY MURTADHO</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="38" t="s">
+      <c r="D5" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="53" t="s">
-        <v>79</v>
+      <c r="F5" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="35"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="50" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="285.75" spans="1:18">
-      <c r="A6" s="37" t="str">
+      <c r="A6" s="34" t="str">
         <f>'ANGKA (Input Nilai)'!A6</f>
         <v>21.02.031</v>
       </c>
-      <c r="B6" s="37" t="str">
+      <c r="B6" s="34" t="str">
         <f>'ANGKA (Input Nilai)'!B6</f>
         <v>MILA NAJIYAH</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="53" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="210.75" spans="1:18">
-      <c r="A7" s="37" t="str">
+      <c r="A7" s="34" t="str">
         <f>'ANGKA (Input Nilai)'!A7</f>
         <v>21.02.023</v>
       </c>
-      <c r="B7" s="37" t="str">
+      <c r="B7" s="34" t="str">
         <f>'ANGKA (Input Nilai)'!B7</f>
         <v>MUHAMMAD RADJA MAHESA PAHLEVI</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="44" t="s">
+      <c r="D7" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="I7" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="53" t="s">
-        <v>79</v>
+      <c r="G7" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="35"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="50" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="180.75" spans="1:18">
-      <c r="A8" s="37" t="str">
+      <c r="A8" s="34" t="str">
         <f>'ANGKA (Input Nilai)'!A8</f>
         <v>21.02.025</v>
       </c>
-      <c r="B8" s="37" t="str">
+      <c r="B8" s="34" t="str">
         <f>'ANGKA (Input Nilai)'!B8</f>
         <v>MUHAMMAD RAYHAN</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="44" t="s">
+      <c r="E8" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="53" t="s">
-        <v>79</v>
+      <c r="G8" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="35"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="50" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="210.75" spans="1:18">
-      <c r="A9" s="37" t="str">
+      <c r="A9" s="34" t="str">
         <f>'ANGKA (Input Nilai)'!A9</f>
         <v>21.02.032</v>
       </c>
-      <c r="B9" s="37" t="str">
+      <c r="B9" s="34" t="str">
         <f>'ANGKA (Input Nilai)'!B9</f>
         <v>NAJWA HANI FILLAH</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="35"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="I9" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="53" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="270.75" spans="1:18">
-      <c r="A10" s="37" t="str">
+      <c r="A10" s="34" t="str">
         <f>'ANGKA (Input Nilai)'!A10</f>
         <v>21.02.033</v>
       </c>
-      <c r="B10" s="37" t="str">
+      <c r="B10" s="34" t="str">
         <f>'ANGKA (Input Nilai)'!B10</f>
         <v>NAYLA IZZATUL HASANAH</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="35"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="I10" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="53" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="285.75" spans="1:18">
-      <c r="A11" s="37" t="str">
+      <c r="A11" s="34" t="str">
         <f>'ANGKA (Input Nilai)'!A11</f>
         <v>21.02.034</v>
       </c>
-      <c r="B11" s="37" t="str">
+      <c r="B11" s="34" t="str">
         <f>'ANGKA (Input Nilai)'!B11</f>
         <v>NIDA KHALWATUS SYAHIDAH</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="44" t="s">
+      <c r="E11" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="I11" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="53" t="s">
+      <c r="G11" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="46" t="s">
         <v>79</v>
       </c>
+      <c r="J11" s="35"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="50" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="210.75" spans="1:18">
-      <c r="A12" s="37" t="str">
+      <c r="A12" s="34" t="str">
         <f>'ANGKA (Input Nilai)'!A12</f>
         <v>21.02.027</v>
       </c>
-      <c r="B12" s="37" t="str">
+      <c r="B12" s="34" t="str">
         <f>'ANGKA (Input Nilai)'!B12</f>
         <v>RIHAL MUHARRIKUL HAQ</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" s="35"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="53" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="13" ht="210.75" spans="1:18">
-      <c r="A13" s="33" t="str">
+      <c r="A13" s="30" t="str">
         <f>'ANGKA (Input Nilai)'!A13</f>
         <v>21.02.036</v>
       </c>
@@ -3327,30 +3356,33 @@
         <f>'ANGKA (Input Nilai)'!B13</f>
         <v>SAFARAZ AUFA RIFDAH</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="R13" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="I13" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="R13" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="14" ht="240" spans="1:18">
-      <c r="A14" s="33" t="str">
+      <c r="A14" s="30" t="str">
         <f>'ANGKA (Input Nilai)'!A14</f>
         <v>21.02.038</v>
       </c>
@@ -3358,26 +3390,29 @@
         <f>'ANGKA (Input Nilai)'!B14</f>
         <v>WALDAN FA'IQ HASAN</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="44" t="s">
+      <c r="E14" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="I14" s="72" t="s">
-        <v>104</v>
+      <c r="G14" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="69" t="s">
+        <v>105</v>
       </c>
       <c r="R14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3395,7 +3430,7 @@
   </sheetPr>
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="D6" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="D6" workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6:Q18"/>
     </sheetView>
   </sheetViews>
@@ -3412,7 +3447,7 @@
   <sheetData>
     <row r="1" ht="114.75" customHeight="1" spans="1:20">
       <c r="A1" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -3436,7 +3471,7 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3460,7 +3495,7 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -3485,64 +3520,64 @@
     <row r="4" ht="27" customHeight="1"/>
     <row r="5" ht="75.75" customHeight="1" spans="1:20">
       <c r="A5" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="E5" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="F5" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="G5" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="H5" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="I5" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="J5" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="K5" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="L5" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="M5" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="O5" s="28" t="s">
+      <c r="N5" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="P5" s="28" t="s">
+      <c r="O5" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="Q5" s="28" t="s">
+      <c r="P5" s="25" t="s">
         <v>127</v>
       </c>
+      <c r="Q5" s="25" t="s">
+        <v>128</v>
+      </c>
       <c r="R5" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:20">
@@ -3571,7 +3606,7 @@
       </c>
       <c r="G6" s="11">
         <f>'ANGKA (Input Nilai)'!I2</f>
-        <v>0</v>
+        <v>84.5</v>
       </c>
       <c r="H6" s="11">
         <f>'ANGKA (Input Nilai)'!K2</f>
@@ -3602,20 +3637,20 @@
         <v>0</v>
       </c>
       <c r="O6" s="7">
-        <f t="shared" ref="O6:O16" si="0">SUM(D6:J6)</f>
-        <v>491.813928571429</v>
-      </c>
-      <c r="P6" s="19">
-        <f t="shared" ref="P6:P19" si="1">AVERAGE(D6,E6,F6,G6,H6,I6,J6)</f>
-        <v>70.2591326530612</v>
-      </c>
-      <c r="Q6" s="30">
+        <f t="shared" ref="O6:O18" si="0">SUM(D6:J6)</f>
+        <v>576.313928571429</v>
+      </c>
+      <c r="P6" s="16">
+        <f t="shared" ref="P6:P21" si="1">AVERAGE(D6,E6,F6,G6,H6,I6,J6)</f>
+        <v>82.3305612244898</v>
+      </c>
+      <c r="Q6" s="27">
         <f t="shared" ref="Q6:Q18" si="2">RANK(O6,$O$6:$O$18)</f>
         <v>13</v>
       </c>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="9">
@@ -3643,7 +3678,7 @@
       </c>
       <c r="G7" s="11">
         <f>'ANGKA (Input Nilai)'!I3</f>
-        <v>0</v>
+        <v>89.3928571428571</v>
       </c>
       <c r="H7" s="11">
         <f>'ANGKA (Input Nilai)'!K3</f>
@@ -3675,19 +3710,19 @@
       </c>
       <c r="O7" s="7">
         <f t="shared" si="0"/>
-        <v>527.968785714286</v>
-      </c>
-      <c r="P7" s="19">
+        <v>617.361642857143</v>
+      </c>
+      <c r="P7" s="16">
         <f t="shared" si="1"/>
-        <v>75.424112244898</v>
-      </c>
-      <c r="Q7" s="30">
+        <v>88.1945204081633</v>
+      </c>
+      <c r="Q7" s="27">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
+        <v>7</v>
+      </c>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="9">
@@ -3715,7 +3750,7 @@
       </c>
       <c r="G8" s="11">
         <f>'ANGKA (Input Nilai)'!I4</f>
-        <v>0</v>
+        <v>91.75</v>
       </c>
       <c r="H8" s="11">
         <f>'ANGKA (Input Nilai)'!K4</f>
@@ -3747,19 +3782,19 @@
       </c>
       <c r="O8" s="7">
         <f t="shared" si="0"/>
-        <v>538.415142857143</v>
-      </c>
-      <c r="P8" s="19">
+        <v>630.165142857143</v>
+      </c>
+      <c r="P8" s="16">
         <f t="shared" si="1"/>
-        <v>76.9164489795918</v>
-      </c>
-      <c r="Q8" s="32">
+        <v>90.0235918367347</v>
+      </c>
+      <c r="Q8" s="29">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="9">
@@ -3787,7 +3822,7 @@
       </c>
       <c r="G9" s="11">
         <f>'ANGKA (Input Nilai)'!I5</f>
-        <v>0</v>
+        <v>89.7857142857143</v>
       </c>
       <c r="H9" s="11">
         <f>'ANGKA (Input Nilai)'!K5</f>
@@ -3819,19 +3854,19 @@
       </c>
       <c r="O9" s="7">
         <f t="shared" si="0"/>
-        <v>515.0375</v>
-      </c>
-      <c r="P9" s="19">
+        <v>604.823214285714</v>
+      </c>
+      <c r="P9" s="16">
         <f t="shared" si="1"/>
-        <v>73.5767857142857</v>
-      </c>
-      <c r="Q9" s="30">
+        <v>86.4033163265306</v>
+      </c>
+      <c r="Q9" s="27">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="9">
@@ -3859,7 +3894,7 @@
       </c>
       <c r="G10" s="11">
         <f>'ANGKA (Input Nilai)'!I6</f>
-        <v>0</v>
+        <v>89.3928571428571</v>
       </c>
       <c r="H10" s="11">
         <f>'ANGKA (Input Nilai)'!K6</f>
@@ -3891,19 +3926,19 @@
       </c>
       <c r="O10" s="7">
         <f t="shared" si="0"/>
-        <v>529.875928571429</v>
-      </c>
-      <c r="P10" s="19">
+        <v>619.268785714286</v>
+      </c>
+      <c r="P10" s="16">
         <f t="shared" si="1"/>
-        <v>75.6965612244898</v>
-      </c>
-      <c r="Q10" s="30">
+        <v>88.4669693877551</v>
+      </c>
+      <c r="Q10" s="27">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="9">
@@ -3931,7 +3966,7 @@
       </c>
       <c r="G11" s="11">
         <f>'ANGKA (Input Nilai)'!I7</f>
-        <v>0</v>
+        <v>89.7857142857143</v>
       </c>
       <c r="H11" s="11">
         <f>'ANGKA (Input Nilai)'!K7</f>
@@ -3963,19 +3998,19 @@
       </c>
       <c r="O11" s="7">
         <f t="shared" si="0"/>
-        <v>512.4715</v>
-      </c>
-      <c r="P11" s="19">
+        <v>602.257214285714</v>
+      </c>
+      <c r="P11" s="16">
         <f t="shared" si="1"/>
-        <v>73.2102142857143</v>
-      </c>
-      <c r="Q11" s="30">
+        <v>86.0367448979592</v>
+      </c>
+      <c r="Q11" s="27">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="9">
@@ -4003,7 +4038,7 @@
       </c>
       <c r="G12" s="11">
         <f>'ANGKA (Input Nilai)'!I8</f>
-        <v>0</v>
+        <v>85.9642857142857</v>
       </c>
       <c r="H12" s="11">
         <f>'ANGKA (Input Nilai)'!K8</f>
@@ -4035,19 +4070,19 @@
       </c>
       <c r="O12" s="7">
         <f t="shared" si="0"/>
-        <v>505.739785714286</v>
-      </c>
-      <c r="P12" s="19">
+        <v>591.704071428571</v>
+      </c>
+      <c r="P12" s="16">
         <f t="shared" si="1"/>
-        <v>72.2485408163265</v>
-      </c>
-      <c r="Q12" s="30">
+        <v>84.5291530612245</v>
+      </c>
+      <c r="Q12" s="27">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="9">
@@ -4075,7 +4110,7 @@
       </c>
       <c r="G13" s="11">
         <f>'ANGKA (Input Nilai)'!I9</f>
-        <v>0</v>
+        <v>90.9642857142857</v>
       </c>
       <c r="H13" s="11">
         <f>'ANGKA (Input Nilai)'!K9</f>
@@ -4107,19 +4142,19 @@
       </c>
       <c r="O13" s="7">
         <f t="shared" si="0"/>
-        <v>534.901214285714</v>
-      </c>
-      <c r="P13" s="19">
+        <v>625.8655</v>
+      </c>
+      <c r="P13" s="16">
         <f t="shared" si="1"/>
-        <v>76.4144591836735</v>
-      </c>
-      <c r="Q13" s="30">
+        <v>89.4093571428571</v>
+      </c>
+      <c r="Q13" s="27">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="9">
@@ -4147,7 +4182,7 @@
       </c>
       <c r="G14" s="11">
         <f>'ANGKA (Input Nilai)'!I10</f>
-        <v>0</v>
+        <v>91.3571428571429</v>
       </c>
       <c r="H14" s="11">
         <f>'ANGKA (Input Nilai)'!K10</f>
@@ -4179,19 +4214,19 @@
       </c>
       <c r="O14" s="7">
         <f t="shared" si="0"/>
-        <v>526.274428571429</v>
-      </c>
-      <c r="P14" s="19">
+        <v>617.631571428572</v>
+      </c>
+      <c r="P14" s="16">
         <f t="shared" si="1"/>
-        <v>75.1820612244898</v>
-      </c>
-      <c r="Q14" s="32">
+        <v>88.2330816326531</v>
+      </c>
+      <c r="Q14" s="29">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
+        <v>6</v>
+      </c>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="9">
@@ -4219,7 +4254,7 @@
       </c>
       <c r="G15" s="11">
         <f>'ANGKA (Input Nilai)'!I11</f>
-        <v>0</v>
+        <v>86.75</v>
       </c>
       <c r="H15" s="11">
         <f>'ANGKA (Input Nilai)'!K11</f>
@@ -4251,19 +4286,19 @@
       </c>
       <c r="O15" s="7">
         <f t="shared" si="0"/>
-        <v>502.675928571429</v>
-      </c>
-      <c r="P15" s="19">
+        <v>589.425928571429</v>
+      </c>
+      <c r="P15" s="16">
         <f t="shared" si="1"/>
-        <v>71.8108469387755</v>
-      </c>
-      <c r="Q15" s="32">
+        <v>84.2037040816327</v>
+      </c>
+      <c r="Q15" s="29">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="9">
@@ -4291,7 +4326,7 @@
       </c>
       <c r="G16" s="11">
         <f>'ANGKA (Input Nilai)'!I12</f>
-        <v>0</v>
+        <v>91.3571428571429</v>
       </c>
       <c r="H16" s="11">
         <f>'ANGKA (Input Nilai)'!K12</f>
@@ -4322,20 +4357,20 @@
         <v>0</v>
       </c>
       <c r="O16" s="7">
-        <f>SUM(D16:J16)</f>
-        <v>539.113357142857</v>
-      </c>
-      <c r="P16" s="19">
-        <f>AVERAGE(D16,E16,F16,G16,H16,I16,J16)</f>
-        <v>77.016193877551</v>
-      </c>
-      <c r="Q16" s="30">
+        <f t="shared" si="0"/>
+        <v>630.4705</v>
+      </c>
+      <c r="P16" s="16">
+        <f t="shared" si="1"/>
+        <v>90.0672142857143</v>
+      </c>
+      <c r="Q16" s="27">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="12">
@@ -4363,7 +4398,7 @@
       </c>
       <c r="G17" s="15">
         <f>'ANGKA (Input Nilai)'!I13</f>
-        <v>0</v>
+        <v>91.3571428571429</v>
       </c>
       <c r="H17" s="15">
         <f>'ANGKA (Input Nilai)'!K13</f>
@@ -4394,12 +4429,12 @@
         <v>0</v>
       </c>
       <c r="O17" s="15">
-        <f>SUM(D17:J17)</f>
-        <v>541.897642857143</v>
-      </c>
-      <c r="P17" s="19">
-        <f>AVERAGE(D17,E17,F17,G17,H17,I17,J17)</f>
-        <v>77.4139489795918</v>
+        <f t="shared" si="0"/>
+        <v>633.254785714286</v>
+      </c>
+      <c r="P17" s="16">
+        <f t="shared" si="1"/>
+        <v>90.4649693877551</v>
       </c>
       <c r="Q17" s="3">
         <f t="shared" si="2"/>
@@ -4435,7 +4470,7 @@
       </c>
       <c r="G18" s="15">
         <f>'ANGKA (Input Nilai)'!I14</f>
-        <v>0</v>
+        <v>91.3571428571429</v>
       </c>
       <c r="H18" s="15">
         <f>'ANGKA (Input Nilai)'!K14</f>
@@ -4466,12 +4501,12 @@
         <v>0</v>
       </c>
       <c r="O18" s="15">
-        <f>SUM(D18:J18)</f>
-        <v>522.459714285714</v>
-      </c>
-      <c r="P18" s="19">
-        <f>AVERAGE(D18,E18,F18,G18,H18,I18,J18)</f>
-        <v>74.6371020408163</v>
+        <f t="shared" si="0"/>
+        <v>613.816857142857</v>
+      </c>
+      <c r="P18" s="16">
+        <f t="shared" si="1"/>
+        <v>87.6881224489796</v>
       </c>
       <c r="Q18" s="3">
         <f t="shared" si="2"/>
@@ -4482,11 +4517,11 @@
       <c r="T18" s="3"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
+      <c r="A19" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="15">
         <f t="shared" ref="D19:O19" si="3">AVERAGE(D6:D16)</f>
         <v>87.5543181818182</v>
@@ -4501,7 +4536,7 @@
       </c>
       <c r="G19" s="15">
         <f t="shared" ref="G19:N19" si="4">AVERAGE(G6:G16)</f>
-        <v>0</v>
+        <v>89.1818181818182</v>
       </c>
       <c r="H19" s="15">
         <f t="shared" si="4"/>
@@ -4533,11 +4568,11 @@
       </c>
       <c r="O19" s="15">
         <f t="shared" si="3"/>
-        <v>520.389772727273</v>
-      </c>
-      <c r="P19" s="19">
-        <f>AVERAGE(D19,E19,F19,G19,H19,I19,J19)</f>
-        <v>74.3413961038961</v>
+        <v>609.571590909091</v>
+      </c>
+      <c r="P19" s="16">
+        <f t="shared" si="1"/>
+        <v>87.0816558441558</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -4545,64 +4580,64 @@
       <c r="T19" s="3"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19">
+      <c r="A20" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="16">
         <f t="shared" ref="D20:O20" si="5">MIN(D6:D16)</f>
         <v>79.0875</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="16">
         <f t="shared" si="5"/>
         <v>92.295</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="16">
         <f t="shared" si="5"/>
         <v>80.3</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="16">
         <f t="shared" ref="G20:N20" si="6">MIN(G6:G16)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="19">
+        <v>84.5</v>
+      </c>
+      <c r="H20" s="16">
         <f t="shared" si="6"/>
         <v>81.3514285714286</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="16">
         <f t="shared" si="6"/>
         <v>75.6071428571429</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="16">
         <f t="shared" si="6"/>
         <v>80.3978571428571</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M20" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N20" s="19">
+      <c r="N20" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O20" s="19">
+      <c r="O20" s="16">
         <f t="shared" si="5"/>
-        <v>491.813928571429</v>
-      </c>
-      <c r="P20" s="19">
-        <f>AVERAGE(D20,E20,F20,G20,H20,I20,J20)</f>
-        <v>69.8627040816327</v>
+        <v>576.313928571429</v>
+      </c>
+      <c r="P20" s="16">
+        <f t="shared" si="1"/>
+        <v>81.9341326530612</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -4610,64 +4645,64 @@
       <c r="T20" s="4"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19">
+      <c r="A21" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="16">
         <f t="shared" ref="D21:O21" si="7">MAX(D6:D16)</f>
         <v>94.095</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="16">
         <f t="shared" si="7"/>
         <v>94.365</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="16">
         <f t="shared" si="7"/>
         <v>87.55</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="16">
         <f t="shared" ref="G21:N21" si="8">MAX(G6:G16)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="19">
+        <v>91.75</v>
+      </c>
+      <c r="H21" s="16">
         <f t="shared" si="8"/>
         <v>91.3801428571429</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="16">
         <f t="shared" si="8"/>
         <v>88.6057142857143</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="16">
         <f t="shared" si="8"/>
         <v>88.38</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L21" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M21" s="19">
+      <c r="M21" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N21" s="19">
+      <c r="N21" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O21" s="19">
+      <c r="O21" s="16">
         <f t="shared" si="7"/>
-        <v>539.113357142857</v>
-      </c>
-      <c r="P21" s="19">
-        <f>AVERAGE(D21,E21,F21,G21,H21,I21,J21)</f>
-        <v>77.7679795918367</v>
+        <v>630.4705</v>
+      </c>
+      <c r="P21" s="16">
+        <f t="shared" si="1"/>
+        <v>90.8751224489796</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -4678,19 +4713,19 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
       <c r="Q22"/>
       <c r="R22"/>
       <c r="S22"/>
@@ -4718,7 +4753,7 @@
     </row>
     <row r="24" s="4" customFormat="1" spans="1:20">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B24"/>
       <c r="D24"/>
@@ -4739,16 +4774,16 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B31" s="21"/>
+      <c r="A31" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4869,10 +4904,10 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4904,10 +4939,10 @@
     </row>
     <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4939,10 +4974,10 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4974,10 +5009,10 @@
     </row>
     <row r="5" spans="1:29">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -5009,10 +5044,10 @@
     </row>
     <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -5044,10 +5079,10 @@
     </row>
     <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -5079,10 +5114,10 @@
     </row>
     <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -5114,10 +5149,10 @@
     </row>
     <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -5149,10 +5184,10 @@
     </row>
     <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -5184,10 +5219,10 @@
     </row>
     <row r="11" spans="1:29">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -5219,10 +5254,10 @@
     </row>
     <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>

--- a/ledger - kelas 3.xlsx
+++ b/ledger - kelas 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7890" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ANGKA (Input Nilai)" sheetId="4" r:id="rId1"/>
@@ -15,14 +15,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ANGKA (Input Nilai)'!$B$2:$B$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Deskripsi!$A$1:$M$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Leger Cetak '!$A$1:$T$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Leger Cetak '!$A$1:$U$31</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="165">
   <si>
     <t>NIS</t>
   </si>
@@ -369,6 +369,9 @@
     <t>NIK</t>
   </si>
   <si>
+    <t>CATATAN</t>
+  </si>
+  <si>
     <t>Bahasa Arab</t>
   </si>
   <si>
@@ -418,6 +421,19 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Hadits: Alhamdulillah ada peningkatan kemampuan hapalan hadits
+Kesantrian: Melanggar pelanggaran berat</t>
+  </si>
+  <si>
+    <t>Kesantrian: Melanggar pelanggaran berat</t>
+  </si>
+  <si>
+    <t>Kesantrian: Adab ketika berbicara kepada yang lebih tua</t>
+  </si>
+  <si>
+    <t>Hadits: Alhamdulillah ada peningkatan kemampuan hapalan hadits</t>
   </si>
   <si>
     <t>RATA-RATA KELAS</t>
@@ -510,12 +526,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,13 +576,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF00B050"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -600,9 +609,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -617,15 +633,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,6 +647,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -648,22 +663,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,16 +684,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,9 +706,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,39 +750,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -812,7 +827,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,139 +965,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,21 +1093,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1117,24 +1117,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1152,11 +1134,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1175,160 +1179,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1347,16 +1362,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1366,19 +1382,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1386,23 +1398,36 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1411,19 +1436,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1435,17 +1457,17 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1453,16 +1475,19 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1475,7 +1500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1484,40 +1509,40 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -1591,13 +1616,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>164874</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>84952</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1120588</xdr:rowOff>
@@ -1623,7 +1648,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4725035" y="0"/>
+          <a:off x="9354185" y="0"/>
           <a:ext cx="1291590" cy="1120140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1935,11 +1960,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="52"/>
-    <col min="2" max="2" width="43.5666666666667" style="52" customWidth="1"/>
-    <col min="3" max="24" width="10.425" style="53" customWidth="1"/>
-    <col min="25" max="27" width="10.425" style="52" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="52"/>
+    <col min="1" max="1" width="9" style="56"/>
+    <col min="2" max="2" width="43.5666666666667" style="56" customWidth="1"/>
+    <col min="3" max="24" width="10.425" style="57" customWidth="1"/>
+    <col min="25" max="27" width="10.425" style="56" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -1949,850 +1974,850 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="O1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="P1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="S1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="45" t="s">
+      <c r="U1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="45" t="s">
+      <c r="V1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="48" t="s">
+      <c r="W1" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="48" t="s">
+      <c r="X1" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="62" t="s">
+      <c r="Y1" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="62" t="s">
+      <c r="Z1" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="62" t="s">
+      <c r="AA1" s="66" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" s="51" customFormat="1" spans="1:27">
-      <c r="A2" s="34" t="s">
+    <row r="2" s="55" customFormat="1" spans="1:27">
+      <c r="A2" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="56">
+      <c r="C2" s="60">
         <v>79.0875</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="56">
+      <c r="E2" s="60">
         <v>93.42</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="56">
+      <c r="G2" s="60">
         <v>81.95</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="56">
+      <c r="I2" s="60">
         <v>84.5</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="56">
+      <c r="K2" s="60">
         <v>81.3514285714286</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="56">
+      <c r="M2" s="60">
         <v>75.6071428571429</v>
       </c>
-      <c r="N2" s="56" t="s">
+      <c r="N2" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="56">
+      <c r="O2" s="60">
         <v>80.3978571428571</v>
       </c>
-      <c r="P2" s="56" t="s">
+      <c r="P2" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="64"/>
-    </row>
-    <row r="3" s="51" customFormat="1" spans="1:27">
-      <c r="A3" s="34" t="s">
+      <c r="Q2" s="63"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="68"/>
+    </row>
+    <row r="3" s="55" customFormat="1" spans="1:27">
+      <c r="A3" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="60">
         <v>89.8875</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="56">
+      <c r="E3" s="60">
         <v>94.095</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="56">
+      <c r="G3" s="60">
         <v>86.375</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="56">
+      <c r="I3" s="60">
         <v>89.3928571428571</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="56">
+      <c r="K3" s="60">
         <v>86.6191428571429</v>
       </c>
-      <c r="L3" s="56" t="s">
+      <c r="L3" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="56">
+      <c r="M3" s="60">
         <v>85.3121428571429</v>
       </c>
-      <c r="N3" s="56" t="s">
+      <c r="N3" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="56">
+      <c r="O3" s="60">
         <v>85.68</v>
       </c>
-      <c r="P3" s="56" t="s">
+      <c r="P3" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="66"/>
-    </row>
-    <row r="4" s="51" customFormat="1" spans="1:27">
-      <c r="A4" s="34" t="s">
+      <c r="Q3" s="63"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="70"/>
+    </row>
+    <row r="4" s="55" customFormat="1" spans="1:27">
+      <c r="A4" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="56">
+      <c r="C4" s="60">
         <v>94.095</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="60">
         <v>94.365</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="56">
+      <c r="G4" s="60">
         <v>87.55</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="56">
+      <c r="I4" s="60">
         <v>91.75</v>
       </c>
-      <c r="J4" s="56" t="s">
+      <c r="J4" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="56">
+      <c r="K4" s="60">
         <v>88.8601428571429</v>
       </c>
-      <c r="L4" s="56" t="s">
+      <c r="L4" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="56">
+      <c r="M4" s="60">
         <v>86.11</v>
       </c>
-      <c r="N4" s="56" t="s">
+      <c r="N4" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="56">
+      <c r="O4" s="60">
         <v>87.435</v>
       </c>
-      <c r="P4" s="56" t="s">
+      <c r="P4" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="66"/>
-    </row>
-    <row r="5" s="51" customFormat="1" spans="1:27">
-      <c r="A5" s="34" t="s">
+      <c r="Q4" s="63"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="70"/>
+    </row>
+    <row r="5" s="55" customFormat="1" spans="1:27">
+      <c r="A5" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="60">
         <v>84.715</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="60">
         <v>93.06</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="56">
+      <c r="G5" s="60">
         <v>83.75</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="56">
+      <c r="I5" s="60">
         <v>89.7857142857143</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="J5" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="56">
+      <c r="K5" s="60">
         <v>88.5964285714286</v>
       </c>
-      <c r="L5" s="56" t="s">
+      <c r="L5" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="56">
+      <c r="M5" s="60">
         <v>79.0889285714286</v>
       </c>
-      <c r="N5" s="56" t="s">
+      <c r="N5" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="56">
+      <c r="O5" s="60">
         <v>85.8271428571429</v>
       </c>
-      <c r="P5" s="56" t="s">
+      <c r="P5" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="65"/>
-      <c r="AA5" s="66"/>
-    </row>
-    <row r="6" s="51" customFormat="1" spans="1:27">
-      <c r="A6" s="34" t="s">
+      <c r="Q5" s="63"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="69"/>
+      <c r="Z5" s="69"/>
+      <c r="AA5" s="70"/>
+    </row>
+    <row r="6" s="55" customFormat="1" spans="1:27">
+      <c r="A6" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="60">
         <v>92.0025</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="60">
         <v>93.78</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="56">
+      <c r="G6" s="60">
         <v>84.65</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="H6" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="56">
+      <c r="I6" s="60">
         <v>89.3928571428571</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="56">
+      <c r="K6" s="60">
         <v>87.547</v>
       </c>
-      <c r="L6" s="56" t="s">
+      <c r="L6" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="56">
+      <c r="M6" s="60">
         <v>84.1428571428571</v>
       </c>
-      <c r="N6" s="56" t="s">
+      <c r="N6" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="56">
+      <c r="O6" s="60">
         <v>87.7535714285714</v>
       </c>
-      <c r="P6" s="56" t="s">
+      <c r="P6" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="66"/>
-    </row>
-    <row r="7" s="51" customFormat="1" spans="1:27">
-      <c r="A7" s="34" t="s">
+      <c r="Q6" s="63"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="70"/>
+    </row>
+    <row r="7" s="55" customFormat="1" spans="1:27">
+      <c r="A7" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="60">
         <v>83.5875</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="60">
         <v>93.825</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="56">
+      <c r="G7" s="60">
         <v>83.3</v>
       </c>
-      <c r="H7" s="56" t="s">
+      <c r="H7" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="56">
+      <c r="I7" s="60">
         <v>89.7857142857143</v>
       </c>
-      <c r="J7" s="56" t="s">
+      <c r="J7" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="56">
+      <c r="K7" s="60">
         <v>86.9647142857143</v>
       </c>
-      <c r="L7" s="56" t="s">
+      <c r="L7" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="56">
+      <c r="M7" s="60">
         <v>81.5857142857143</v>
       </c>
-      <c r="N7" s="56" t="s">
+      <c r="N7" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="56">
+      <c r="O7" s="60">
         <v>83.2085714285714</v>
       </c>
-      <c r="P7" s="56" t="s">
+      <c r="P7" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="66"/>
-    </row>
-    <row r="8" s="51" customFormat="1" spans="1:27">
-      <c r="A8" s="34" t="s">
+      <c r="Q7" s="63"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="70"/>
+    </row>
+    <row r="8" s="55" customFormat="1" spans="1:27">
+      <c r="A8" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="60">
         <v>81.045</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="60">
         <v>93.15</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="56">
+      <c r="G8" s="60">
         <v>80.3</v>
       </c>
-      <c r="H8" s="56" t="s">
+      <c r="H8" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="56">
+      <c r="I8" s="60">
         <v>85.9642857142857</v>
       </c>
-      <c r="J8" s="56" t="s">
+      <c r="J8" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="56">
+      <c r="K8" s="60">
         <v>86.3401428571429</v>
       </c>
-      <c r="L8" s="56" t="s">
+      <c r="L8" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="56">
+      <c r="M8" s="60">
         <v>79.2660714285714</v>
       </c>
-      <c r="N8" s="56" t="s">
+      <c r="N8" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="56">
+      <c r="O8" s="60">
         <v>85.6385714285714</v>
       </c>
-      <c r="P8" s="56" t="s">
+      <c r="P8" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="60"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="66"/>
-    </row>
-    <row r="9" s="51" customFormat="1" spans="1:27">
-      <c r="A9" s="34" t="s">
+      <c r="Q8" s="63"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="70"/>
+    </row>
+    <row r="9" s="55" customFormat="1" spans="1:27">
+      <c r="A9" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="60">
         <v>92.0475</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="60">
         <v>94.365</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="56">
+      <c r="G9" s="60">
         <v>86.35</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="56">
+      <c r="I9" s="60">
         <v>90.9642857142857</v>
       </c>
-      <c r="J9" s="56" t="s">
+      <c r="J9" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="56">
+      <c r="K9" s="60">
         <v>87.3337142857143</v>
       </c>
-      <c r="L9" s="56" t="s">
+      <c r="L9" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="56">
+      <c r="M9" s="60">
         <v>87.3335714285714</v>
       </c>
-      <c r="N9" s="56" t="s">
+      <c r="N9" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="56">
+      <c r="O9" s="60">
         <v>87.4714285714286</v>
       </c>
-      <c r="P9" s="56" t="s">
+      <c r="P9" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="66"/>
-    </row>
-    <row r="10" s="51" customFormat="1" spans="1:27">
-      <c r="A10" s="34" t="s">
+      <c r="Q9" s="63"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="69"/>
+      <c r="AA9" s="70"/>
+    </row>
+    <row r="10" s="55" customFormat="1" spans="1:27">
+      <c r="A10" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="60">
         <v>91.555</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="60">
         <v>94.23</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="56">
+      <c r="G10" s="60">
         <v>86.45</v>
       </c>
-      <c r="H10" s="56" t="s">
+      <c r="H10" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="56">
+      <c r="I10" s="60">
         <v>91.3571428571429</v>
       </c>
-      <c r="J10" s="56" t="s">
+      <c r="J10" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="56">
+      <c r="K10" s="60">
         <v>84.0487142857143</v>
       </c>
-      <c r="L10" s="56" t="s">
+      <c r="L10" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="56">
+      <c r="M10" s="60">
         <v>84.2621428571429</v>
       </c>
-      <c r="N10" s="56" t="s">
+      <c r="N10" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="56">
+      <c r="O10" s="60">
         <v>85.7285714285714</v>
       </c>
-      <c r="P10" s="56" t="s">
+      <c r="P10" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="66"/>
-    </row>
-    <row r="11" s="51" customFormat="1" spans="1:27">
-      <c r="A11" s="34" t="s">
+      <c r="Q10" s="63"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="69"/>
+      <c r="AA10" s="70"/>
+    </row>
+    <row r="11" s="55" customFormat="1" spans="1:27">
+      <c r="A11" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="56">
+      <c r="C11" s="60">
         <v>83.5675</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="60">
         <v>92.295</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="56">
+      <c r="G11" s="60">
         <v>83.75</v>
       </c>
-      <c r="H11" s="56" t="s">
+      <c r="H11" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="56">
+      <c r="I11" s="60">
         <v>86.75</v>
       </c>
-      <c r="J11" s="56" t="s">
+      <c r="J11" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="56">
+      <c r="K11" s="60">
         <v>82.687</v>
       </c>
-      <c r="L11" s="56" t="s">
+      <c r="L11" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="56">
+      <c r="M11" s="60">
         <v>78.6528571428572</v>
       </c>
-      <c r="N11" s="56" t="s">
+      <c r="N11" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="O11" s="56">
+      <c r="O11" s="60">
         <v>81.7235714285714</v>
       </c>
-      <c r="P11" s="56" t="s">
+      <c r="P11" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="61"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="60"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="66"/>
-    </row>
-    <row r="12" s="51" customFormat="1" spans="1:27">
-      <c r="A12" s="34" t="s">
+      <c r="Q11" s="63"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="69"/>
+      <c r="AA11" s="70"/>
+    </row>
+    <row r="12" s="55" customFormat="1" spans="1:27">
+      <c r="A12" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="56">
+      <c r="C12" s="60">
         <v>91.5075</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="60">
         <v>94.14</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="56">
+      <c r="G12" s="60">
         <v>85.1</v>
       </c>
-      <c r="H12" s="56" t="s">
+      <c r="H12" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="56">
+      <c r="I12" s="60">
         <v>91.3571428571429</v>
       </c>
-      <c r="J12" s="56" t="s">
+      <c r="J12" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="56">
+      <c r="K12" s="60">
         <v>91.3801428571429</v>
       </c>
-      <c r="L12" s="56" t="s">
+      <c r="L12" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="M12" s="56">
+      <c r="M12" s="60">
         <v>88.6057142857143</v>
       </c>
-      <c r="N12" s="56" t="s">
+      <c r="N12" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="O12" s="56">
+      <c r="O12" s="60">
         <v>88.38</v>
       </c>
-      <c r="P12" s="56" t="s">
+      <c r="P12" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="66"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="63"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="69"/>
+      <c r="AA12" s="70"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="57">
         <v>93.285</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="57">
         <v>94.5</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="53">
+      <c r="G13" s="57">
         <v>86</v>
       </c>
-      <c r="H13" s="53" t="s">
+      <c r="H13" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="53">
+      <c r="I13" s="57">
         <v>91.3571428571429</v>
       </c>
-      <c r="J13" s="53" t="s">
+      <c r="J13" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="53">
+      <c r="K13" s="57">
         <v>90.9751428571429</v>
       </c>
-      <c r="L13" s="53" t="s">
+      <c r="L13" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="M13" s="53">
+      <c r="M13" s="57">
         <v>89.6660714285714</v>
       </c>
-      <c r="N13" s="53" t="s">
+      <c r="N13" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="53">
+      <c r="O13" s="57">
         <v>87.4714285714286</v>
       </c>
-      <c r="P13" s="53" t="s">
+      <c r="P13" s="57" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="57">
         <v>87.5925</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="57">
         <v>93.69</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="57">
         <v>82.85</v>
       </c>
-      <c r="H14" s="53" t="s">
+      <c r="H14" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="53">
+      <c r="I14" s="57">
         <v>91.3571428571429</v>
       </c>
-      <c r="J14" s="53" t="s">
+      <c r="J14" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="57">
         <v>84.3997142857143</v>
       </c>
-      <c r="L14" s="53" t="s">
+      <c r="L14" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="53">
+      <c r="M14" s="57">
         <v>85.0075</v>
       </c>
-      <c r="N14" s="53" t="s">
+      <c r="N14" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="53">
+      <c r="O14" s="57">
         <v>88.92</v>
       </c>
-      <c r="P14" s="53" t="s">
+      <c r="P14" s="57" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2810,7 +2835,7 @@
   </sheetPr>
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2820,11 +2845,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.8583333333333" style="30" customWidth="1"/>
+    <col min="1" max="1" width="10.8583333333333" style="34" customWidth="1"/>
     <col min="2" max="2" width="28.2833333333333" customWidth="1"/>
-    <col min="3" max="11" width="35.7083333333333" style="31" customWidth="1"/>
-    <col min="12" max="12" width="37.425" style="31" customWidth="1"/>
-    <col min="13" max="13" width="35.7083333333333" style="31" customWidth="1"/>
+    <col min="3" max="11" width="35.7083333333333" style="35" customWidth="1"/>
+    <col min="12" max="12" width="37.425" style="35" customWidth="1"/>
+    <col min="13" max="13" width="35.7083333333333" style="35" customWidth="1"/>
     <col min="14" max="14" width="35.8583333333333" customWidth="1"/>
     <col min="18" max="18" width="23.7083333333333" customWidth="1"/>
   </cols>
@@ -2836,519 +2861,519 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="N1" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="O1" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="R1" s="53" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="180.75" spans="1:18">
-      <c r="A2" s="34" t="str">
+      <c r="A2" s="38" t="str">
         <f>'ANGKA (Input Nilai)'!A2</f>
         <v>21.02.019</v>
       </c>
-      <c r="B2" s="34" t="str">
+      <c r="B2" s="38" t="str">
         <f>'ANGKA (Input Nilai)'!B2</f>
         <v>ARVIANDOW FEBRIANSYAH</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="50" t="s">
+      <c r="J2" s="39"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="54" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="210.75" spans="1:18">
-      <c r="A3" s="34" t="str">
+      <c r="A3" s="38" t="str">
         <f>'ANGKA (Input Nilai)'!A3</f>
         <v>21.02.020</v>
       </c>
-      <c r="B3" s="34" t="str">
+      <c r="B3" s="38" t="str">
         <f>'ANGKA (Input Nilai)'!B3</f>
         <v>AYATURRAHMAN SHINRA AUFA</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="67" t="s">
+      <c r="I3" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="50" t="s">
+      <c r="J3" s="39"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="54" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="210.75" spans="1:18">
-      <c r="A4" s="34" t="str">
+      <c r="A4" s="38" t="str">
         <f>'ANGKA (Input Nilai)'!A4</f>
         <v>21.02.021</v>
       </c>
-      <c r="B4" s="34" t="str">
+      <c r="B4" s="38" t="str">
         <f>'ANGKA (Input Nilai)'!B4</f>
         <v>HAZWAN HAFIZUDDIN</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="67" t="s">
+      <c r="I4" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="50" t="s">
+      <c r="J4" s="39"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="54" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="210.75" spans="1:18">
-      <c r="A5" s="34" t="str">
+      <c r="A5" s="38" t="str">
         <f>'ANGKA (Input Nilai)'!A5</f>
         <v>21.02.022</v>
       </c>
-      <c r="B5" s="34" t="str">
+      <c r="B5" s="38" t="str">
         <f>'ANGKA (Input Nilai)'!B5</f>
         <v>KHALID GHAZY MURTADHO</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="50" t="s">
+      <c r="J5" s="39"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="54" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="285.75" spans="1:18">
-      <c r="A6" s="34" t="str">
+      <c r="A6" s="38" t="str">
         <f>'ANGKA (Input Nilai)'!A6</f>
         <v>21.02.031</v>
       </c>
-      <c r="B6" s="34" t="str">
+      <c r="B6" s="38" t="str">
         <f>'ANGKA (Input Nilai)'!B6</f>
         <v>MILA NAJIYAH</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="50" t="s">
+      <c r="J6" s="39"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="54" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="210.75" spans="1:18">
-      <c r="A7" s="34" t="str">
+      <c r="A7" s="38" t="str">
         <f>'ANGKA (Input Nilai)'!A7</f>
         <v>21.02.023</v>
       </c>
-      <c r="B7" s="34" t="str">
+      <c r="B7" s="38" t="str">
         <f>'ANGKA (Input Nilai)'!B7</f>
         <v>MUHAMMAD RADJA MAHESA PAHLEVI</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="68" t="s">
+      <c r="I7" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="50" t="s">
+      <c r="J7" s="39"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="54" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="180.75" spans="1:18">
-      <c r="A8" s="34" t="str">
+      <c r="A8" s="38" t="str">
         <f>'ANGKA (Input Nilai)'!A8</f>
         <v>21.02.025</v>
       </c>
-      <c r="B8" s="34" t="str">
+      <c r="B8" s="38" t="str">
         <f>'ANGKA (Input Nilai)'!B8</f>
         <v>MUHAMMAD RAYHAN</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="I8" s="68" t="s">
+      <c r="I8" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="50" t="s">
+      <c r="J8" s="39"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="54" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="210.75" spans="1:18">
-      <c r="A9" s="34" t="str">
+      <c r="A9" s="38" t="str">
         <f>'ANGKA (Input Nilai)'!A9</f>
         <v>21.02.032</v>
       </c>
-      <c r="B9" s="34" t="str">
+      <c r="B9" s="38" t="str">
         <f>'ANGKA (Input Nilai)'!B9</f>
         <v>NAJWA HANI FILLAH</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="I9" s="67" t="s">
+      <c r="I9" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="50" t="s">
+      <c r="J9" s="39"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="54" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="270.75" spans="1:18">
-      <c r="A10" s="34" t="str">
+      <c r="A10" s="38" t="str">
         <f>'ANGKA (Input Nilai)'!A10</f>
         <v>21.02.033</v>
       </c>
-      <c r="B10" s="34" t="str">
+      <c r="B10" s="38" t="str">
         <f>'ANGKA (Input Nilai)'!B10</f>
         <v>NAYLA IZZATUL HASANAH</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="I10" s="67" t="s">
+      <c r="I10" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="50" t="s">
+      <c r="J10" s="39"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="54" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="285.75" spans="1:18">
-      <c r="A11" s="34" t="str">
+      <c r="A11" s="38" t="str">
         <f>'ANGKA (Input Nilai)'!A11</f>
         <v>21.02.034</v>
       </c>
-      <c r="B11" s="34" t="str">
+      <c r="B11" s="38" t="str">
         <f>'ANGKA (Input Nilai)'!B11</f>
         <v>NIDA KHALWATUS SYAHIDAH</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="46" t="s">
+      <c r="I11" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="50" t="s">
+      <c r="J11" s="39"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="54" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="210.75" spans="1:18">
-      <c r="A12" s="34" t="str">
+      <c r="A12" s="38" t="str">
         <f>'ANGKA (Input Nilai)'!A12</f>
         <v>21.02.027</v>
       </c>
-      <c r="B12" s="34" t="str">
+      <c r="B12" s="38" t="str">
         <f>'ANGKA (Input Nilai)'!B12</f>
         <v>RIHAL MUHARRIKUL HAQ</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="I12" s="67" t="s">
+      <c r="I12" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="50" t="s">
+      <c r="J12" s="39"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="54" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="13" ht="210.75" spans="1:18">
-      <c r="A13" s="30" t="str">
+      <c r="A13" s="34" t="str">
         <f>'ANGKA (Input Nilai)'!A13</f>
         <v>21.02.036</v>
       </c>
@@ -3356,25 +3381,25 @@
         <f>'ANGKA (Input Nilai)'!B13</f>
         <v>SAFARAZ AUFA RIFDAH</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="I13" s="69" t="s">
+      <c r="I13" s="73" t="s">
         <v>85</v>
       </c>
       <c r="R13" t="s">
@@ -3382,7 +3407,7 @@
       </c>
     </row>
     <row r="14" ht="240" spans="1:18">
-      <c r="A14" s="30" t="str">
+      <c r="A14" s="34" t="str">
         <f>'ANGKA (Input Nilai)'!A14</f>
         <v>21.02.038</v>
       </c>
@@ -3390,25 +3415,25 @@
         <f>'ANGKA (Input Nilai)'!B14</f>
         <v>WALDAN FA'IQ HASAN</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="I14" s="69" t="s">
+      <c r="I14" s="73" t="s">
         <v>105</v>
       </c>
       <c r="R14" t="s">
@@ -3428,24 +3453,25 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6:Q18"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.56666666666667" customWidth="1"/>
     <col min="2" max="2" width="9.28333333333333" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="14" width="6" customWidth="1"/>
-    <col min="15" max="16" width="7" style="4" customWidth="1"/>
-    <col min="17" max="17" width="6.70833333333333" customWidth="1"/>
-    <col min="18" max="20" width="4" customWidth="1"/>
+    <col min="3" max="3" width="33.75" customWidth="1"/>
+    <col min="4" max="4" width="56" customWidth="1"/>
+    <col min="5" max="15" width="6" customWidth="1"/>
+    <col min="16" max="17" width="7" style="4" customWidth="1"/>
+    <col min="18" max="18" width="6.70833333333333" customWidth="1"/>
+    <col min="19" max="21" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="114.75" customHeight="1" spans="1:20">
+    <row r="1" ht="114.75" customHeight="1" spans="1:21">
       <c r="A1" s="5" t="s">
         <v>110</v>
       </c>
@@ -3468,8 +3494,9 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="5"/>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="6" t="s">
         <v>111</v>
       </c>
@@ -3492,8 +3519,9 @@
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2" s="6"/>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="5" t="s">
         <v>112</v>
       </c>
@@ -3516,9 +3544,10 @@
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
     </row>
     <row r="4" ht="27" customHeight="1"/>
-    <row r="5" ht="75.75" customHeight="1" spans="1:20">
+    <row r="5" ht="75.75" customHeight="1" spans="1:21">
       <c r="A5" s="7" t="s">
         <v>113</v>
       </c>
@@ -3531,46 +3560,46 @@
       <c r="D5" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="O5" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="P5" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="29" t="s">
         <v>129</v>
       </c>
       <c r="S5" s="7" t="s">
@@ -3579,8 +3608,11 @@
       <c r="T5" s="7" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:20">
+      <c r="U5" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="30" spans="1:21">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -3592,67 +3624,66 @@
         <f>'ANGKA (Input Nilai)'!B2</f>
         <v>ARVIANDOW FEBRIANSYAH</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="22">
         <f>'ANGKA (Input Nilai)'!C2</f>
         <v>79.0875</v>
       </c>
-      <c r="E6" s="11">
+      <c r="F6" s="22">
         <f>'ANGKA (Input Nilai)'!E2</f>
         <v>93.42</v>
       </c>
-      <c r="F6" s="11">
+      <c r="G6" s="22">
         <f>'ANGKA (Input Nilai)'!G2</f>
         <v>81.95</v>
       </c>
-      <c r="G6" s="11">
+      <c r="H6" s="22">
         <f>'ANGKA (Input Nilai)'!I2</f>
         <v>84.5</v>
       </c>
-      <c r="H6" s="11">
+      <c r="I6" s="22">
         <f>'ANGKA (Input Nilai)'!K2</f>
         <v>81.3514285714286</v>
       </c>
-      <c r="I6" s="11">
+      <c r="J6" s="22">
         <f>'ANGKA (Input Nilai)'!M2</f>
         <v>75.6071428571429</v>
       </c>
-      <c r="J6" s="11">
+      <c r="K6" s="22">
         <f>'ANGKA (Input Nilai)'!O2</f>
         <v>80.3978571428571</v>
       </c>
-      <c r="K6" s="11">
-        <f>'ANGKA (Input Nilai)'!Q2</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="11">
-        <f>'ANGKA (Input Nilai)'!S2</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="11">
-        <f>'ANGKA (Input Nilai)'!U2</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="11">
-        <f>'ANGKA (Input Nilai)'!W2</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <f t="shared" ref="O6:O18" si="0">SUM(D6:J6)</f>
+      <c r="L6" s="22">
+        <v>80</v>
+      </c>
+      <c r="M6" s="22">
+        <v>80</v>
+      </c>
+      <c r="N6" s="22">
+        <v>80</v>
+      </c>
+      <c r="O6" s="22">
+        <v>80</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" ref="P6:P18" si="0">SUM(E6:K6)</f>
         <v>576.313928571429</v>
       </c>
-      <c r="P6" s="16">
-        <f t="shared" ref="P6:P21" si="1">AVERAGE(D6,E6,F6,G6,H6,I6,J6)</f>
+      <c r="Q6" s="24">
+        <f t="shared" ref="Q6:Q21" si="1">AVERAGE(E6,F6,G6,H6,I6,J6,K6)</f>
         <v>82.3305612244898</v>
       </c>
-      <c r="Q6" s="27">
-        <f t="shared" ref="Q6:Q18" si="2">RANK(O6,$O$6:$O$18)</f>
+      <c r="R6" s="31">
+        <f t="shared" ref="R6:R18" si="2">RANK(P6,$P$6:$P$18)</f>
         <v>13</v>
       </c>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -3664,67 +3695,64 @@
         <f>'ANGKA (Input Nilai)'!B3</f>
         <v>AYATURRAHMAN SHINRA AUFA</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10"/>
+      <c r="E7" s="22">
         <f>'ANGKA (Input Nilai)'!C3</f>
         <v>89.8875</v>
       </c>
-      <c r="E7" s="11">
+      <c r="F7" s="22">
         <f>'ANGKA (Input Nilai)'!E3</f>
         <v>94.095</v>
       </c>
-      <c r="F7" s="11">
+      <c r="G7" s="22">
         <f>'ANGKA (Input Nilai)'!G3</f>
         <v>86.375</v>
       </c>
-      <c r="G7" s="11">
+      <c r="H7" s="22">
         <f>'ANGKA (Input Nilai)'!I3</f>
         <v>89.3928571428571</v>
       </c>
-      <c r="H7" s="11">
+      <c r="I7" s="22">
         <f>'ANGKA (Input Nilai)'!K3</f>
         <v>86.6191428571429</v>
       </c>
-      <c r="I7" s="11">
+      <c r="J7" s="22">
         <f>'ANGKA (Input Nilai)'!M3</f>
         <v>85.3121428571429</v>
       </c>
-      <c r="J7" s="11">
+      <c r="K7" s="22">
         <f>'ANGKA (Input Nilai)'!O3</f>
         <v>85.68</v>
       </c>
-      <c r="K7" s="11">
-        <f>'ANGKA (Input Nilai)'!Q3</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="11">
-        <f>'ANGKA (Input Nilai)'!S3</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="11">
-        <f>'ANGKA (Input Nilai)'!U3</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="11">
-        <f>'ANGKA (Input Nilai)'!W3</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
+      <c r="L7" s="22">
+        <v>80</v>
+      </c>
+      <c r="M7" s="22">
+        <v>80</v>
+      </c>
+      <c r="N7" s="22">
+        <v>80</v>
+      </c>
+      <c r="O7" s="22">
+        <v>80</v>
+      </c>
+      <c r="P7" s="7">
         <f t="shared" si="0"/>
         <v>617.361642857143</v>
       </c>
-      <c r="P7" s="16">
+      <c r="Q7" s="24">
         <f t="shared" si="1"/>
         <v>88.1945204081633</v>
       </c>
-      <c r="Q7" s="27">
+      <c r="R7" s="31">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="9">
         <v>3</v>
       </c>
@@ -3732,71 +3760,68 @@
         <f>Deskripsi!A4</f>
         <v>21.02.021</v>
       </c>
-      <c r="C8" s="10" t="str">
+      <c r="C8" s="12" t="str">
         <f>'ANGKA (Input Nilai)'!B4</f>
         <v>HAZWAN HAFIZUDDIN</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="12"/>
+      <c r="E8" s="22">
         <f>'ANGKA (Input Nilai)'!C4</f>
         <v>94.095</v>
       </c>
-      <c r="E8" s="11">
+      <c r="F8" s="22">
         <f>'ANGKA (Input Nilai)'!E4</f>
         <v>94.365</v>
       </c>
-      <c r="F8" s="11">
+      <c r="G8" s="22">
         <f>'ANGKA (Input Nilai)'!G4</f>
         <v>87.55</v>
       </c>
-      <c r="G8" s="11">
+      <c r="H8" s="22">
         <f>'ANGKA (Input Nilai)'!I4</f>
         <v>91.75</v>
       </c>
-      <c r="H8" s="11">
+      <c r="I8" s="22">
         <f>'ANGKA (Input Nilai)'!K4</f>
         <v>88.8601428571429</v>
       </c>
-      <c r="I8" s="11">
+      <c r="J8" s="22">
         <f>'ANGKA (Input Nilai)'!M4</f>
         <v>86.11</v>
       </c>
-      <c r="J8" s="11">
+      <c r="K8" s="22">
         <f>'ANGKA (Input Nilai)'!O4</f>
         <v>87.435</v>
       </c>
-      <c r="K8" s="11">
-        <f>'ANGKA (Input Nilai)'!Q4</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="11">
-        <f>'ANGKA (Input Nilai)'!S4</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="11">
-        <f>'ANGKA (Input Nilai)'!U4</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="11">
-        <f>'ANGKA (Input Nilai)'!W4</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
+      <c r="L8" s="22">
+        <v>80</v>
+      </c>
+      <c r="M8" s="22">
+        <v>80</v>
+      </c>
+      <c r="N8" s="22">
+        <v>80</v>
+      </c>
+      <c r="O8" s="22">
+        <v>80</v>
+      </c>
+      <c r="P8" s="7">
         <f t="shared" si="0"/>
         <v>630.165142857143</v>
       </c>
-      <c r="P8" s="16">
+      <c r="Q8" s="24">
         <f t="shared" si="1"/>
         <v>90.0235918367347</v>
       </c>
-      <c r="Q8" s="29">
+      <c r="R8" s="33">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="9">
         <v>4</v>
       </c>
@@ -3808,67 +3833,66 @@
         <f>'ANGKA (Input Nilai)'!B5</f>
         <v>KHALID GHAZY MURTADHO</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="22">
         <f>'ANGKA (Input Nilai)'!C5</f>
         <v>84.715</v>
       </c>
-      <c r="E9" s="11">
+      <c r="F9" s="22">
         <f>'ANGKA (Input Nilai)'!E5</f>
         <v>93.06</v>
       </c>
-      <c r="F9" s="11">
+      <c r="G9" s="22">
         <f>'ANGKA (Input Nilai)'!G5</f>
         <v>83.75</v>
       </c>
-      <c r="G9" s="11">
+      <c r="H9" s="22">
         <f>'ANGKA (Input Nilai)'!I5</f>
         <v>89.7857142857143</v>
       </c>
-      <c r="H9" s="11">
+      <c r="I9" s="22">
         <f>'ANGKA (Input Nilai)'!K5</f>
         <v>88.5964285714286</v>
       </c>
-      <c r="I9" s="11">
+      <c r="J9" s="22">
         <f>'ANGKA (Input Nilai)'!M5</f>
         <v>79.0889285714286</v>
       </c>
-      <c r="J9" s="11">
+      <c r="K9" s="22">
         <f>'ANGKA (Input Nilai)'!O5</f>
         <v>85.8271428571429</v>
       </c>
-      <c r="K9" s="11">
-        <f>'ANGKA (Input Nilai)'!Q5</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="11">
-        <f>'ANGKA (Input Nilai)'!S5</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="11">
-        <f>'ANGKA (Input Nilai)'!U5</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="11">
-        <f>'ANGKA (Input Nilai)'!W5</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
+      <c r="L9" s="22">
+        <v>80</v>
+      </c>
+      <c r="M9" s="22">
+        <v>80</v>
+      </c>
+      <c r="N9" s="22">
+        <v>80</v>
+      </c>
+      <c r="O9" s="22">
+        <v>80</v>
+      </c>
+      <c r="P9" s="7">
         <f t="shared" si="0"/>
         <v>604.823214285714</v>
       </c>
-      <c r="P9" s="16">
+      <c r="Q9" s="24">
         <f t="shared" si="1"/>
         <v>86.4033163265306</v>
       </c>
-      <c r="Q9" s="27">
+      <c r="R9" s="31">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="9">
         <v>5</v>
       </c>
@@ -3880,67 +3904,66 @@
         <f>'ANGKA (Input Nilai)'!B6</f>
         <v>MILA NAJIYAH</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="22">
         <f>'ANGKA (Input Nilai)'!C6</f>
         <v>92.0025</v>
       </c>
-      <c r="E10" s="11">
+      <c r="F10" s="22">
         <f>'ANGKA (Input Nilai)'!E6</f>
         <v>93.78</v>
       </c>
-      <c r="F10" s="11">
+      <c r="G10" s="22">
         <f>'ANGKA (Input Nilai)'!G6</f>
         <v>84.65</v>
       </c>
-      <c r="G10" s="11">
+      <c r="H10" s="22">
         <f>'ANGKA (Input Nilai)'!I6</f>
         <v>89.3928571428571</v>
       </c>
-      <c r="H10" s="11">
+      <c r="I10" s="22">
         <f>'ANGKA (Input Nilai)'!K6</f>
         <v>87.547</v>
       </c>
-      <c r="I10" s="11">
+      <c r="J10" s="22">
         <f>'ANGKA (Input Nilai)'!M6</f>
         <v>84.1428571428571</v>
       </c>
-      <c r="J10" s="11">
+      <c r="K10" s="22">
         <f>'ANGKA (Input Nilai)'!O6</f>
         <v>87.7535714285714</v>
       </c>
-      <c r="K10" s="11">
-        <f>'ANGKA (Input Nilai)'!Q6</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="11">
-        <f>'ANGKA (Input Nilai)'!S6</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="11">
-        <f>'ANGKA (Input Nilai)'!U6</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="11">
-        <f>'ANGKA (Input Nilai)'!W6</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
+      <c r="L10" s="22">
+        <v>80</v>
+      </c>
+      <c r="M10" s="22">
+        <v>80</v>
+      </c>
+      <c r="N10" s="22">
+        <v>80</v>
+      </c>
+      <c r="O10" s="22">
+        <v>80</v>
+      </c>
+      <c r="P10" s="7">
         <f t="shared" si="0"/>
         <v>619.268785714286</v>
       </c>
-      <c r="P10" s="16">
+      <c r="Q10" s="24">
         <f t="shared" si="1"/>
         <v>88.4669693877551</v>
       </c>
-      <c r="Q10" s="27">
+      <c r="R10" s="31">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="9">
         <v>6</v>
       </c>
@@ -3952,67 +3975,64 @@
         <f>'ANGKA (Input Nilai)'!B7</f>
         <v>MUHAMMAD RADJA MAHESA PAHLEVI</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10"/>
+      <c r="E11" s="22">
         <f>'ANGKA (Input Nilai)'!C7</f>
         <v>83.5875</v>
       </c>
-      <c r="E11" s="11">
+      <c r="F11" s="22">
         <f>'ANGKA (Input Nilai)'!E7</f>
         <v>93.825</v>
       </c>
-      <c r="F11" s="11">
+      <c r="G11" s="22">
         <f>'ANGKA (Input Nilai)'!G7</f>
         <v>83.3</v>
       </c>
-      <c r="G11" s="11">
+      <c r="H11" s="22">
         <f>'ANGKA (Input Nilai)'!I7</f>
         <v>89.7857142857143</v>
       </c>
-      <c r="H11" s="11">
+      <c r="I11" s="22">
         <f>'ANGKA (Input Nilai)'!K7</f>
         <v>86.9647142857143</v>
       </c>
-      <c r="I11" s="11">
+      <c r="J11" s="22">
         <f>'ANGKA (Input Nilai)'!M7</f>
         <v>81.5857142857143</v>
       </c>
-      <c r="J11" s="11">
+      <c r="K11" s="22">
         <f>'ANGKA (Input Nilai)'!O7</f>
         <v>83.2085714285714</v>
       </c>
-      <c r="K11" s="11">
-        <f>'ANGKA (Input Nilai)'!Q7</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="11">
-        <f>'ANGKA (Input Nilai)'!S7</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="11">
-        <f>'ANGKA (Input Nilai)'!U7</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="11">
-        <f>'ANGKA (Input Nilai)'!W7</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
+      <c r="L11" s="22">
+        <v>80</v>
+      </c>
+      <c r="M11" s="22">
+        <v>80</v>
+      </c>
+      <c r="N11" s="22">
+        <v>80</v>
+      </c>
+      <c r="O11" s="22">
+        <v>80</v>
+      </c>
+      <c r="P11" s="7">
         <f t="shared" si="0"/>
         <v>602.257214285714</v>
       </c>
-      <c r="P11" s="16">
+      <c r="Q11" s="24">
         <f t="shared" si="1"/>
         <v>86.0367448979592</v>
       </c>
-      <c r="Q11" s="27">
+      <c r="R11" s="31">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="9">
         <v>7</v>
       </c>
@@ -4024,67 +4044,64 @@
         <f>'ANGKA (Input Nilai)'!B8</f>
         <v>MUHAMMAD RAYHAN</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10"/>
+      <c r="E12" s="22">
         <f>'ANGKA (Input Nilai)'!C8</f>
         <v>81.045</v>
       </c>
-      <c r="E12" s="11">
+      <c r="F12" s="22">
         <f>'ANGKA (Input Nilai)'!E8</f>
         <v>93.15</v>
       </c>
-      <c r="F12" s="11">
+      <c r="G12" s="22">
         <f>'ANGKA (Input Nilai)'!G8</f>
         <v>80.3</v>
       </c>
-      <c r="G12" s="11">
+      <c r="H12" s="22">
         <f>'ANGKA (Input Nilai)'!I8</f>
         <v>85.9642857142857</v>
       </c>
-      <c r="H12" s="11">
+      <c r="I12" s="22">
         <f>'ANGKA (Input Nilai)'!K8</f>
         <v>86.3401428571429</v>
       </c>
-      <c r="I12" s="11">
+      <c r="J12" s="22">
         <f>'ANGKA (Input Nilai)'!M8</f>
         <v>79.2660714285714</v>
       </c>
-      <c r="J12" s="11">
+      <c r="K12" s="22">
         <f>'ANGKA (Input Nilai)'!O8</f>
         <v>85.6385714285714</v>
       </c>
-      <c r="K12" s="11">
-        <f>'ANGKA (Input Nilai)'!Q8</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="11">
-        <f>'ANGKA (Input Nilai)'!S8</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="11">
-        <f>'ANGKA (Input Nilai)'!U8</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="11">
-        <f>'ANGKA (Input Nilai)'!W8</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="7">
+      <c r="L12" s="22">
+        <v>80</v>
+      </c>
+      <c r="M12" s="22">
+        <v>80</v>
+      </c>
+      <c r="N12" s="22">
+        <v>80</v>
+      </c>
+      <c r="O12" s="22">
+        <v>80</v>
+      </c>
+      <c r="P12" s="7">
         <f t="shared" si="0"/>
         <v>591.704071428571</v>
       </c>
-      <c r="P12" s="16">
+      <c r="Q12" s="24">
         <f t="shared" si="1"/>
         <v>84.5291530612245</v>
       </c>
-      <c r="Q12" s="27">
+      <c r="R12" s="31">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="9">
         <v>8</v>
       </c>
@@ -4096,67 +4113,64 @@
         <f>'ANGKA (Input Nilai)'!B9</f>
         <v>NAJWA HANI FILLAH</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10"/>
+      <c r="E13" s="22">
         <f>'ANGKA (Input Nilai)'!C9</f>
         <v>92.0475</v>
       </c>
-      <c r="E13" s="11">
+      <c r="F13" s="22">
         <f>'ANGKA (Input Nilai)'!E9</f>
         <v>94.365</v>
       </c>
-      <c r="F13" s="11">
+      <c r="G13" s="22">
         <f>'ANGKA (Input Nilai)'!G9</f>
         <v>86.35</v>
       </c>
-      <c r="G13" s="11">
+      <c r="H13" s="22">
         <f>'ANGKA (Input Nilai)'!I9</f>
         <v>90.9642857142857</v>
       </c>
-      <c r="H13" s="11">
+      <c r="I13" s="22">
         <f>'ANGKA (Input Nilai)'!K9</f>
         <v>87.3337142857143</v>
       </c>
-      <c r="I13" s="11">
+      <c r="J13" s="22">
         <f>'ANGKA (Input Nilai)'!M9</f>
         <v>87.3335714285714</v>
       </c>
-      <c r="J13" s="11">
+      <c r="K13" s="22">
         <f>'ANGKA (Input Nilai)'!O9</f>
         <v>87.4714285714286</v>
       </c>
-      <c r="K13" s="11">
-        <f>'ANGKA (Input Nilai)'!Q9</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="11">
-        <f>'ANGKA (Input Nilai)'!S9</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="11">
-        <f>'ANGKA (Input Nilai)'!U9</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="11">
-        <f>'ANGKA (Input Nilai)'!W9</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="7">
+      <c r="L13" s="22">
+        <v>80</v>
+      </c>
+      <c r="M13" s="22">
+        <v>80</v>
+      </c>
+      <c r="N13" s="22">
+        <v>80</v>
+      </c>
+      <c r="O13" s="22">
+        <v>80</v>
+      </c>
+      <c r="P13" s="7">
         <f t="shared" si="0"/>
         <v>625.8655</v>
       </c>
-      <c r="P13" s="16">
+      <c r="Q13" s="24">
         <f t="shared" si="1"/>
         <v>89.4093571428571</v>
       </c>
-      <c r="Q13" s="27">
+      <c r="R13" s="31">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="9">
         <v>9</v>
       </c>
@@ -4168,67 +4182,66 @@
         <f>'ANGKA (Input Nilai)'!B10</f>
         <v>NAYLA IZZATUL HASANAH</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="22">
         <f>'ANGKA (Input Nilai)'!C10</f>
         <v>91.555</v>
       </c>
-      <c r="E14" s="11">
+      <c r="F14" s="22">
         <f>'ANGKA (Input Nilai)'!E10</f>
         <v>94.23</v>
       </c>
-      <c r="F14" s="11">
+      <c r="G14" s="22">
         <f>'ANGKA (Input Nilai)'!G10</f>
         <v>86.45</v>
       </c>
-      <c r="G14" s="11">
+      <c r="H14" s="22">
         <f>'ANGKA (Input Nilai)'!I10</f>
         <v>91.3571428571429</v>
       </c>
-      <c r="H14" s="11">
+      <c r="I14" s="22">
         <f>'ANGKA (Input Nilai)'!K10</f>
         <v>84.0487142857143</v>
       </c>
-      <c r="I14" s="11">
+      <c r="J14" s="22">
         <f>'ANGKA (Input Nilai)'!M10</f>
         <v>84.2621428571429</v>
       </c>
-      <c r="J14" s="11">
+      <c r="K14" s="22">
         <f>'ANGKA (Input Nilai)'!O10</f>
         <v>85.7285714285714</v>
       </c>
-      <c r="K14" s="11">
-        <f>'ANGKA (Input Nilai)'!Q10</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="11">
-        <f>'ANGKA (Input Nilai)'!S10</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="11">
-        <f>'ANGKA (Input Nilai)'!U10</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="11">
-        <f>'ANGKA (Input Nilai)'!W10</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
+      <c r="L14" s="22">
+        <v>80</v>
+      </c>
+      <c r="M14" s="22">
+        <v>80</v>
+      </c>
+      <c r="N14" s="22">
+        <v>80</v>
+      </c>
+      <c r="O14" s="22">
+        <v>80</v>
+      </c>
+      <c r="P14" s="7">
         <f t="shared" si="0"/>
         <v>617.631571428572</v>
       </c>
-      <c r="P14" s="16">
+      <c r="Q14" s="24">
         <f t="shared" si="1"/>
         <v>88.2330816326531</v>
       </c>
-      <c r="Q14" s="29">
+      <c r="R14" s="31">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="9">
         <v>10</v>
       </c>
@@ -4240,67 +4253,66 @@
         <f>'ANGKA (Input Nilai)'!B11</f>
         <v>NIDA KHALWATUS SYAHIDAH</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="22">
         <f>'ANGKA (Input Nilai)'!C11</f>
         <v>83.5675</v>
       </c>
-      <c r="E15" s="11">
+      <c r="F15" s="22">
         <f>'ANGKA (Input Nilai)'!E11</f>
         <v>92.295</v>
       </c>
-      <c r="F15" s="11">
+      <c r="G15" s="22">
         <f>'ANGKA (Input Nilai)'!G11</f>
         <v>83.75</v>
       </c>
-      <c r="G15" s="11">
+      <c r="H15" s="22">
         <f>'ANGKA (Input Nilai)'!I11</f>
         <v>86.75</v>
       </c>
-      <c r="H15" s="11">
+      <c r="I15" s="22">
         <f>'ANGKA (Input Nilai)'!K11</f>
         <v>82.687</v>
       </c>
-      <c r="I15" s="11">
+      <c r="J15" s="22">
         <f>'ANGKA (Input Nilai)'!M11</f>
         <v>78.6528571428572</v>
       </c>
-      <c r="J15" s="11">
+      <c r="K15" s="22">
         <f>'ANGKA (Input Nilai)'!O11</f>
         <v>81.7235714285714</v>
       </c>
-      <c r="K15" s="11">
-        <f>'ANGKA (Input Nilai)'!Q11</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="11">
-        <f>'ANGKA (Input Nilai)'!S11</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="11">
-        <f>'ANGKA (Input Nilai)'!U11</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="11">
-        <f>'ANGKA (Input Nilai)'!W11</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="7">
+      <c r="L15" s="22">
+        <v>80</v>
+      </c>
+      <c r="M15" s="22">
+        <v>80</v>
+      </c>
+      <c r="N15" s="22">
+        <v>80</v>
+      </c>
+      <c r="O15" s="22">
+        <v>80</v>
+      </c>
+      <c r="P15" s="7">
         <f t="shared" si="0"/>
         <v>589.425928571429</v>
       </c>
-      <c r="P15" s="16">
+      <c r="Q15" s="24">
         <f t="shared" si="1"/>
         <v>84.2037040816327</v>
       </c>
-      <c r="Q15" s="29">
+      <c r="R15" s="31">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="9">
         <v>11</v>
       </c>
@@ -4308,430 +4320,427 @@
         <f>Deskripsi!A12</f>
         <v>21.02.027</v>
       </c>
-      <c r="C16" s="10" t="str">
+      <c r="C16" s="12" t="str">
         <f>'ANGKA (Input Nilai)'!B12</f>
         <v>RIHAL MUHARRIKUL HAQ</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="12"/>
+      <c r="E16" s="22">
         <f>'ANGKA (Input Nilai)'!C12</f>
         <v>91.5075</v>
       </c>
-      <c r="E16" s="11">
+      <c r="F16" s="22">
         <f>'ANGKA (Input Nilai)'!E12</f>
         <v>94.14</v>
       </c>
-      <c r="F16" s="11">
+      <c r="G16" s="22">
         <f>'ANGKA (Input Nilai)'!G12</f>
         <v>85.1</v>
       </c>
-      <c r="G16" s="11">
+      <c r="H16" s="22">
         <f>'ANGKA (Input Nilai)'!I12</f>
         <v>91.3571428571429</v>
       </c>
-      <c r="H16" s="11">
+      <c r="I16" s="22">
         <f>'ANGKA (Input Nilai)'!K12</f>
         <v>91.3801428571429</v>
       </c>
-      <c r="I16" s="11">
+      <c r="J16" s="22">
         <f>'ANGKA (Input Nilai)'!M12</f>
         <v>88.6057142857143</v>
       </c>
-      <c r="J16" s="11">
+      <c r="K16" s="22">
         <f>'ANGKA (Input Nilai)'!O12</f>
         <v>88.38</v>
       </c>
-      <c r="K16" s="11">
-        <f>'ANGKA (Input Nilai)'!Q12</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="11">
-        <f>'ANGKA (Input Nilai)'!S12</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="11">
-        <f>'ANGKA (Input Nilai)'!U12</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="11">
-        <f>'ANGKA (Input Nilai)'!W12</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="7">
+      <c r="L16" s="22">
+        <v>80</v>
+      </c>
+      <c r="M16" s="22">
+        <v>80</v>
+      </c>
+      <c r="N16" s="22">
+        <v>80</v>
+      </c>
+      <c r="O16" s="22">
+        <v>80</v>
+      </c>
+      <c r="P16" s="7">
         <f t="shared" si="0"/>
         <v>630.4705</v>
       </c>
-      <c r="P16" s="16">
+      <c r="Q16" s="24">
         <f t="shared" si="1"/>
         <v>90.0672142857143</v>
       </c>
-      <c r="Q16" s="27">
+      <c r="R16" s="33">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="12">
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="13">
         <v>12</v>
       </c>
-      <c r="B17" s="13" t="str">
+      <c r="B17" s="14" t="str">
         <f>Deskripsi!A13</f>
         <v>21.02.036</v>
       </c>
-      <c r="C17" s="14" t="str">
+      <c r="C17" s="12" t="str">
         <f>'ANGKA (Input Nilai)'!B13</f>
         <v>SAFARAZ AUFA RIFDAH</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="12"/>
+      <c r="E17" s="22">
         <f>'ANGKA (Input Nilai)'!C13</f>
         <v>93.285</v>
       </c>
-      <c r="E17" s="15">
+      <c r="F17" s="22">
         <f>'ANGKA (Input Nilai)'!E13</f>
         <v>94.5</v>
       </c>
-      <c r="F17" s="15">
+      <c r="G17" s="22">
         <f>'ANGKA (Input Nilai)'!G13</f>
         <v>86</v>
       </c>
-      <c r="G17" s="15">
+      <c r="H17" s="22">
         <f>'ANGKA (Input Nilai)'!I13</f>
         <v>91.3571428571429</v>
       </c>
-      <c r="H17" s="15">
+      <c r="I17" s="22">
         <f>'ANGKA (Input Nilai)'!K13</f>
         <v>90.9751428571429</v>
       </c>
-      <c r="I17" s="15">
+      <c r="J17" s="22">
         <f>'ANGKA (Input Nilai)'!M13</f>
         <v>89.6660714285714</v>
       </c>
-      <c r="J17" s="15">
+      <c r="K17" s="22">
         <f>'ANGKA (Input Nilai)'!O13</f>
         <v>87.4714285714286</v>
       </c>
-      <c r="K17" s="15">
-        <f>'ANGKA (Input Nilai)'!Q13</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="15">
-        <f>'ANGKA (Input Nilai)'!S13</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="15">
-        <f>'ANGKA (Input Nilai)'!U13</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="15">
-        <f>'ANGKA (Input Nilai)'!W13</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="15">
+      <c r="L17" s="22">
+        <v>80</v>
+      </c>
+      <c r="M17" s="22">
+        <v>80</v>
+      </c>
+      <c r="N17" s="22">
+        <v>80</v>
+      </c>
+      <c r="O17" s="22">
+        <v>80</v>
+      </c>
+      <c r="P17" s="23">
         <f t="shared" si="0"/>
         <v>633.254785714286</v>
       </c>
-      <c r="P17" s="16">
+      <c r="Q17" s="24">
         <f t="shared" si="1"/>
         <v>90.4649693877551</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="33">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="12">
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="13">
         <v>13</v>
       </c>
-      <c r="B18" s="13" t="str">
+      <c r="B18" s="14" t="str">
         <f>Deskripsi!A14</f>
         <v>21.02.038</v>
       </c>
-      <c r="C18" s="14" t="str">
+      <c r="C18" s="10" t="str">
         <f>'ANGKA (Input Nilai)'!B14</f>
         <v>WALDAN FA'IQ HASAN</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="22">
         <f>'ANGKA (Input Nilai)'!C14</f>
         <v>87.5925</v>
       </c>
-      <c r="E18" s="15">
+      <c r="F18" s="22">
         <f>'ANGKA (Input Nilai)'!E14</f>
         <v>93.69</v>
       </c>
-      <c r="F18" s="15">
+      <c r="G18" s="22">
         <f>'ANGKA (Input Nilai)'!G14</f>
         <v>82.85</v>
       </c>
-      <c r="G18" s="15">
+      <c r="H18" s="22">
         <f>'ANGKA (Input Nilai)'!I14</f>
         <v>91.3571428571429</v>
       </c>
-      <c r="H18" s="15">
+      <c r="I18" s="22">
         <f>'ANGKA (Input Nilai)'!K14</f>
         <v>84.3997142857143</v>
       </c>
-      <c r="I18" s="15">
+      <c r="J18" s="22">
         <f>'ANGKA (Input Nilai)'!M14</f>
         <v>85.0075</v>
       </c>
-      <c r="J18" s="15">
+      <c r="K18" s="22">
         <f>'ANGKA (Input Nilai)'!O14</f>
         <v>88.92</v>
       </c>
-      <c r="K18" s="15">
-        <f>'ANGKA (Input Nilai)'!Q14</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="15">
-        <f>'ANGKA (Input Nilai)'!S14</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="15">
-        <f>'ANGKA (Input Nilai)'!U14</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="15">
-        <f>'ANGKA (Input Nilai)'!W14</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="15">
+      <c r="L18" s="22">
+        <v>80</v>
+      </c>
+      <c r="M18" s="22">
+        <v>80</v>
+      </c>
+      <c r="N18" s="22">
+        <v>80</v>
+      </c>
+      <c r="O18" s="22">
+        <v>80</v>
+      </c>
+      <c r="P18" s="23">
         <f t="shared" si="0"/>
         <v>613.816857142857</v>
       </c>
-      <c r="P18" s="16">
+      <c r="Q18" s="24">
         <f t="shared" si="1"/>
         <v>87.6881224489796</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="31">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15">
-        <f t="shared" ref="D19:O19" si="3">AVERAGE(D6:D16)</f>
+      <c r="U18" s="3"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="23">
+        <f t="shared" ref="E19:P19" si="3">AVERAGE(E6:E16)</f>
         <v>87.5543181818182</v>
       </c>
-      <c r="E19" s="15">
+      <c r="F19" s="23">
         <f t="shared" si="3"/>
         <v>93.7022727272727</v>
       </c>
-      <c r="F19" s="15">
+      <c r="G19" s="23">
         <f t="shared" si="3"/>
         <v>84.5022727272727</v>
       </c>
-      <c r="G19" s="15">
-        <f t="shared" ref="G19:N19" si="4">AVERAGE(G6:G16)</f>
+      <c r="H19" s="23">
+        <f t="shared" ref="H19:O19" si="4">AVERAGE(H6:H16)</f>
         <v>89.1818181818182</v>
       </c>
-      <c r="H19" s="15">
+      <c r="I19" s="23">
         <f t="shared" si="4"/>
         <v>86.5207792207792</v>
       </c>
-      <c r="I19" s="15">
+      <c r="J19" s="23">
         <f t="shared" si="4"/>
         <v>82.7242857142857</v>
       </c>
-      <c r="J19" s="15">
+      <c r="K19" s="23">
         <f t="shared" si="4"/>
         <v>85.3858441558442</v>
       </c>
-      <c r="K19" s="15">
+      <c r="L19" s="23">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="15">
+        <v>80</v>
+      </c>
+      <c r="M19" s="23">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="15">
+        <v>80</v>
+      </c>
+      <c r="N19" s="23">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="15">
+        <v>80</v>
+      </c>
+      <c r="O19" s="23">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="15">
+        <v>80</v>
+      </c>
+      <c r="P19" s="23">
         <f t="shared" si="3"/>
         <v>609.571590909091</v>
       </c>
-      <c r="P19" s="16">
+      <c r="Q19" s="24">
         <f t="shared" si="1"/>
-        <v>87.0816558441558</v>
-      </c>
-      <c r="Q19" s="3"/>
+        <v>87.0816558441559</v>
+      </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="16">
-        <f t="shared" ref="D20:O20" si="5">MIN(D6:D16)</f>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="24">
+        <f t="shared" ref="E20:P20" si="5">MIN(E6:E16)</f>
         <v>79.0875</v>
       </c>
-      <c r="E20" s="16">
+      <c r="F20" s="24">
         <f t="shared" si="5"/>
         <v>92.295</v>
       </c>
-      <c r="F20" s="16">
+      <c r="G20" s="24">
         <f t="shared" si="5"/>
         <v>80.3</v>
       </c>
-      <c r="G20" s="16">
-        <f t="shared" ref="G20:N20" si="6">MIN(G6:G16)</f>
+      <c r="H20" s="24">
+        <f t="shared" ref="H20:O20" si="6">MIN(H6:H16)</f>
         <v>84.5</v>
       </c>
-      <c r="H20" s="16">
+      <c r="I20" s="24">
         <f t="shared" si="6"/>
         <v>81.3514285714286</v>
       </c>
-      <c r="I20" s="16">
+      <c r="J20" s="24">
         <f t="shared" si="6"/>
         <v>75.6071428571429</v>
       </c>
-      <c r="J20" s="16">
+      <c r="K20" s="24">
         <f t="shared" si="6"/>
         <v>80.3978571428571</v>
       </c>
-      <c r="K20" s="16">
+      <c r="L20" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="16">
+        <v>80</v>
+      </c>
+      <c r="M20" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="16">
+        <v>80</v>
+      </c>
+      <c r="N20" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="16">
+        <v>80</v>
+      </c>
+      <c r="O20" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="16">
+        <v>80</v>
+      </c>
+      <c r="P20" s="24">
         <f t="shared" si="5"/>
         <v>576.313928571429</v>
       </c>
-      <c r="P20" s="16">
+      <c r="Q20" s="24">
         <f t="shared" si="1"/>
         <v>81.9341326530612</v>
       </c>
-      <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="16">
-        <f t="shared" ref="D21:O21" si="7">MAX(D6:D16)</f>
+      <c r="U20" s="4"/>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="24">
+        <f t="shared" ref="E21:P21" si="7">MAX(E6:E16)</f>
         <v>94.095</v>
       </c>
-      <c r="E21" s="16">
+      <c r="F21" s="24">
         <f t="shared" si="7"/>
         <v>94.365</v>
       </c>
-      <c r="F21" s="16">
+      <c r="G21" s="24">
         <f t="shared" si="7"/>
         <v>87.55</v>
       </c>
-      <c r="G21" s="16">
-        <f t="shared" ref="G21:N21" si="8">MAX(G6:G16)</f>
+      <c r="H21" s="24">
+        <f t="shared" ref="H21:O21" si="8">MAX(H6:H16)</f>
         <v>91.75</v>
       </c>
-      <c r="H21" s="16">
+      <c r="I21" s="24">
         <f t="shared" si="8"/>
         <v>91.3801428571429</v>
       </c>
-      <c r="I21" s="16">
+      <c r="J21" s="24">
         <f t="shared" si="8"/>
         <v>88.6057142857143</v>
       </c>
-      <c r="J21" s="16">
+      <c r="K21" s="24">
         <f t="shared" si="8"/>
         <v>88.38</v>
       </c>
-      <c r="K21" s="16">
+      <c r="L21" s="24">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="16">
+        <v>80</v>
+      </c>
+      <c r="M21" s="24">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="16">
+        <v>80</v>
+      </c>
+      <c r="N21" s="24">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="16">
+        <v>80</v>
+      </c>
+      <c r="O21" s="24">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="16">
+        <v>80</v>
+      </c>
+      <c r="P21" s="24">
         <f t="shared" si="7"/>
         <v>630.4705</v>
       </c>
-      <c r="P21" s="16">
+      <c r="Q21" s="24">
         <f t="shared" si="1"/>
         <v>90.8751224489796</v>
       </c>
-      <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
-    </row>
-    <row r="22" s="3" customFormat="1" spans="1:20">
+      <c r="U21" s="4"/>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="1:21">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22"/>
+      <c r="D22"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
       <c r="R22"/>
       <c r="S22"/>
       <c r="T22"/>
-    </row>
-    <row r="23" s="4" customFormat="1" spans="1:20">
+      <c r="U22"/>
+    </row>
+    <row r="23" s="4" customFormat="1" spans="1:21">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -4746,17 +4755,17 @@
       <c r="L23"/>
       <c r="M23"/>
       <c r="N23"/>
-      <c r="Q23"/>
+      <c r="O23"/>
       <c r="R23"/>
       <c r="S23"/>
       <c r="T23"/>
-    </row>
-    <row r="24" s="4" customFormat="1" spans="1:20">
+      <c r="U23"/>
+    </row>
+    <row r="24" s="4" customFormat="1" spans="1:21">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B24"/>
-      <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
@@ -4767,29 +4776,31 @@
       <c r="L24"/>
       <c r="M24"/>
       <c r="N24"/>
-      <c r="Q24"/>
+      <c r="O24"/>
       <c r="R24"/>
       <c r="S24"/>
       <c r="T24"/>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="U24"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B31" s="18"/>
+      <c r="A31" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A3:T3"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="A3:U3"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A21:C21"/>
@@ -4904,10 +4915,10 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4939,10 +4950,10 @@
     </row>
     <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4974,10 +4985,10 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -5009,10 +5020,10 @@
     </row>
     <row r="5" spans="1:29">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -5044,10 +5055,10 @@
     </row>
     <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -5079,10 +5090,10 @@
     </row>
     <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -5114,10 +5125,10 @@
     </row>
     <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -5149,10 +5160,10 @@
     </row>
     <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -5184,10 +5195,10 @@
     </row>
     <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -5219,10 +5230,10 @@
     </row>
     <row r="11" spans="1:29">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -5254,10 +5265,10 @@
     </row>
     <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>

--- a/ledger - kelas 3.xlsx
+++ b/ledger - kelas 3.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="166">
   <si>
     <t>NIS</t>
   </si>
@@ -431,6 +431,10 @@
   </si>
   <si>
     <t>Kesantrian: Adab ketika berbicara kepada yang lebih tua</t>
+  </si>
+  <si>
+    <t>Kesantrian: Adab ketika berbicara kepada yang lebih tua
+Tahfidz: Di semester ini, hapalannya kurang ada peningkatan</t>
   </si>
   <si>
     <t>Hadits: Alhamdulillah ada peningkatan kemampuan hapalan hadits</t>
@@ -526,9 +530,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="31">
@@ -609,16 +613,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,18 +636,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -662,8 +659,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,57 +733,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -742,17 +754,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -827,7 +831,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,109 +963,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,24 +976,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,6 +1097,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1102,17 +1121,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1134,9 +1147,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1150,17 +1165,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1179,167 +1194,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1373,13 +1377,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3456,7 +3460,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4170,7 +4174,7 @@
       <c r="T13" s="32"/>
       <c r="U13" s="32"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" ht="30" spans="1:21">
       <c r="A14" s="9">
         <v>9</v>
       </c>
@@ -4182,8 +4186,8 @@
         <f>'ANGKA (Input Nilai)'!B10</f>
         <v>NAYLA IZZATUL HASANAH</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>135</v>
+      <c r="D14" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="E14" s="22">
         <f>'ANGKA (Input Nilai)'!C10</f>
@@ -4382,10 +4386,10 @@
       <c r="U16" s="32"/>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="13">
+      <c r="A17" s="14">
         <v>12</v>
       </c>
-      <c r="B17" s="14" t="str">
+      <c r="B17" s="15" t="str">
         <f>Deskripsi!A13</f>
         <v>21.02.036</v>
       </c>
@@ -4451,10 +4455,10 @@
       <c r="U17" s="3"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="13">
+      <c r="A18" s="14">
         <v>13</v>
       </c>
-      <c r="B18" s="14" t="str">
+      <c r="B18" s="15" t="str">
         <f>Deskripsi!A14</f>
         <v>21.02.038</v>
       </c>
@@ -4463,7 +4467,7 @@
         <v>WALDAN FA'IQ HASAN</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E18" s="22">
         <f>'ANGKA (Input Nilai)'!C14</f>
@@ -4522,11 +4526,11 @@
       <c r="U18" s="3"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="23">
         <f t="shared" ref="E19:P19" si="3">AVERAGE(E6:E16)</f>
@@ -4586,13 +4590,13 @@
       <c r="U19" s="3"/>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="15"/>
+      <c r="A20" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="24">
         <f t="shared" ref="E20:P20" si="5">MIN(E6:E16)</f>
@@ -4652,13 +4656,13 @@
       <c r="U20" s="4"/>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="15"/>
+      <c r="A21" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="24">
         <f t="shared" ref="E21:P21" si="7">MAX(E6:E16)</f>
@@ -4763,7 +4767,7 @@
     </row>
     <row r="24" s="4" customFormat="1" spans="1:21">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B24"/>
       <c r="E24"/>
@@ -4784,7 +4788,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -4792,7 +4796,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B31" s="17"/>
     </row>
@@ -4915,10 +4919,10 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4950,10 +4954,10 @@
     </row>
     <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4985,10 +4989,10 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -5020,10 +5024,10 @@
     </row>
     <row r="5" spans="1:29">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -5055,10 +5059,10 @@
     </row>
     <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -5090,10 +5094,10 @@
     </row>
     <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -5125,10 +5129,10 @@
     </row>
     <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -5160,10 +5164,10 @@
     </row>
     <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -5195,10 +5199,10 @@
     </row>
     <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -5230,10 +5234,10 @@
     </row>
     <row r="11" spans="1:29">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -5265,10 +5269,10 @@
     </row>
     <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>

--- a/ledger - kelas 3.xlsx
+++ b/ledger - kelas 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7890" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7890" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ANGKA (Input Nilai)" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="152">
   <si>
     <t>NIS</t>
   </si>
@@ -264,6 +264,21 @@
     <t>ALHAMDULILLAH ANANDA BISA MENGIKUTI PELAJARAN DENGAN BAIK, SEMOGA BISA LEBIH DISIPLIN DAN PRESTASINYA BISA LEBIH DITINGKTKAN LAGI</t>
   </si>
   <si>
+    <t>Alhamdulillah, Ananda mampu memahami materi dengan baik dan menulis teks dengan struktur yang jelas serta penggunaan bahasa yang tepat.</t>
+  </si>
+  <si>
+    <t>Alhamdulillah, Ananda mampu memahami konsep matematika dengan baik dan menerapkannya secara tepat dalam menyelesaikan berbagai soal.</t>
+  </si>
+  <si>
+    <t>Alhamdulillah, Ananda mampu memahami konsep-konsep IPA dengan baik dan mengaplikasikannya dalam eksperimen serta observasi secara tepat.</t>
+  </si>
+  <si>
+    <t>Alhamdulillah, Ananda mampu memahami materi Bahasa Inggris dengan baik dan menggunakan bahasa tersebut dengan lancar dalam komunikasi sehari-hari.</t>
+  </si>
+  <si>
+    <t>Alhamdulillah ada perkembangan di pelajaran hadits. Semoga bisa terus semangat belajar hadits dan di pelajaran lainnya.</t>
+  </si>
+  <si>
     <t>Muhammad Zaini, S.Psi.</t>
   </si>
   <si>
@@ -282,6 +297,9 @@
     <t xml:space="preserve">Alhamdulillah ananda telah mengikuti proses kegiatan belajar dengan baik, semoga Allah tambahkan ilmunya serta mendapatkan keberkahan </t>
   </si>
   <si>
+    <t>Alhamdulillah Ananda diberi kelancaran menyelesaikan studi. Semoga senantiasa diberi keberkahan</t>
+  </si>
+  <si>
     <t>Alhamdulillah ananda Hazwan dapat memahami materi adab dengan baik, dan adabnya dalam belajar pun terjaga. Semoga ananda dapat menerapkan materi yang dipelajari dengan baik dimanapun ananda berada</t>
   </si>
   <si>
@@ -297,10 +315,16 @@
     <t>Alhamdulillah Ananda Khalid sudah mencapai marhalah Siap, yaitu kelas persiapan untuk menghafal Al Quran karena bacaan Ananda secara tajwid sudah baik berdasarkan uji kenaikan marhalah. Demikian juga terkait adab, Alhamdulillah Ananda menjaga adab dengan baik ketika di dalam kelas. Agar lebih baik, Ananda perlu menjaga bacaan Mad, melatih nafas panjang, dengung, tempo bacaan tartil dan makhroj huruf. Besar harapan kami agar Ananda tetap merutinkan tilawah Al Quran dan memperbaiki kualitas bacaannya. Semoga Allah menjadikan Ananda sebagai Ahlul Quran.</t>
   </si>
   <si>
+    <t>Semoga senantiasa taat dengan perintah Allah dan semangat belajarnya</t>
+  </si>
+  <si>
     <t>Alhamdulillah ananda Mila dapat memahami materi adab dengan baik, dan adabnya dalam belajar pun terjaga. Semoga ananda dapat menerapkan materi yang dipelajari dengan baik dimanapun ananda berada</t>
   </si>
   <si>
     <t>Alhamdulillah Ananda Mila sudah mencapai marhalah Siap, yaitu kelas persiapan untuk menghafal Al Quran karena bacaan Ananda secara tajwid sudah baik berdasarkan uji kenaikan marhalah. Terlrkait adab, Alhamdulillah Ananda menjaga adab dengan baik ketika di dalam kelas. Perlu adanya catatan pada adab adalah agar bisa lebih fokus dalam memperhatikan materi dan menyimak tilawah yang sedang dilantunkan dengan baik. Agar lebih baik, Ananda perlu menjaga tempo bacaan tartil, berlatih nafas panjang, konsistensi bacaan mad, perhatikan kembali terkait waqaf bacaan, serta makhroj huruf. Besar harapan kami agar Ananda tetap merutinkan tilawah Al Quran dan memperbaiki kualitas bacaannya. Semoga Allah menjadikan Ananda sebagai Ahlul Quran.</t>
+  </si>
+  <si>
+    <t>Mohon diperhatikan lagi ketika berinteraksi dengan orang lain</t>
   </si>
   <si>
     <t>Alhamdulillah ananda Radja dapat memahami materi adab dengan baik, dan adabnya dalam belajar pun terjaga. Semoga ananda dapat menerapkan materi yang dipelajari dengan baik dimanapun ananda berada</t>
@@ -456,72 +480,6 @@
   </si>
   <si>
     <t>Iskandar, S.Pd</t>
-  </si>
-  <si>
-    <t>22.02.040</t>
-  </si>
-  <si>
-    <t>Akmal Al Jundi</t>
-  </si>
-  <si>
-    <t>22.02.041</t>
-  </si>
-  <si>
-    <t>Alya' Zulfa Ramadhani</t>
-  </si>
-  <si>
-    <t>22.02.042</t>
-  </si>
-  <si>
-    <t>Idris</t>
-  </si>
-  <si>
-    <t>22.02.043</t>
-  </si>
-  <si>
-    <t>Muhammad Al'pahrezy</t>
-  </si>
-  <si>
-    <t>22.02.044</t>
-  </si>
-  <si>
-    <t>Muhammad Faisal Asy Syams</t>
-  </si>
-  <si>
-    <t>22.02.045</t>
-  </si>
-  <si>
-    <t>Muhammad Fakhri</t>
-  </si>
-  <si>
-    <t>22.02.046</t>
-  </si>
-  <si>
-    <t>Muhammad Jamil Asy Syahid</t>
-  </si>
-  <si>
-    <t>22.02.047</t>
-  </si>
-  <si>
-    <t>Najwa Qurrota Aini</t>
-  </si>
-  <si>
-    <t>22.02.048</t>
-  </si>
-  <si>
-    <t>Nur Intan Amirah Shafiqh</t>
-  </si>
-  <si>
-    <t>22.02.049</t>
-  </si>
-  <si>
-    <t>Ruwayfi Raffa Alhamdani</t>
-  </si>
-  <si>
-    <t>22.02.050</t>
-  </si>
-  <si>
-    <t>Sekar Arum Wijayanti</t>
   </si>
 </sst>
 </file>
@@ -529,10 +487,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="31">
@@ -546,6 +504,33 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -581,40 +566,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,8 +587,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -644,31 +610,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -691,14 +634,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,20 +655,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,6 +691,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -746,17 +713,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,18 +726,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -796,6 +742,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,7 +789,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,25 +885,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,13 +897,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,49 +921,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,43 +933,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,6 +954,36 @@
         <color auto="1"/>
       </right>
       <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -1046,36 +1034,6 @@
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -1156,15 +1114,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1176,6 +1125,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1198,158 +1156,194 @@
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1357,16 +1351,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1376,30 +1370,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1412,26 +1403,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1440,59 +1434,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1504,53 +1480,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="1" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -1955,874 +1937,1098 @@
   <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="Q1" sqref="Q1:X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="56"/>
-    <col min="2" max="2" width="43.5666666666667" style="56" customWidth="1"/>
-    <col min="3" max="24" width="10.425" style="57" customWidth="1"/>
-    <col min="25" max="27" width="10.425" style="56" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="56"/>
+    <col min="1" max="1" width="9" style="64"/>
+    <col min="2" max="2" width="43.5666666666667" style="64" customWidth="1"/>
+    <col min="3" max="24" width="10.425" style="65" customWidth="1"/>
+    <col min="25" max="27" width="10.425" style="64" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="64"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="49" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="52" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="52" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="66" t="s">
+      <c r="Y1" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="66" t="s">
+      <c r="Z1" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="66" t="s">
+      <c r="AA1" s="73" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" s="55" customFormat="1" spans="1:27">
-      <c r="A2" s="38" t="s">
+    <row r="2" s="63" customFormat="1" spans="1:27">
+      <c r="A2" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="60">
+      <c r="C2" s="68">
         <v>79.0875</v>
       </c>
-      <c r="D2" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="60">
+      <c r="D2" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="68">
         <v>93.42</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="60">
+      <c r="G2" s="68">
         <v>81.95</v>
       </c>
-      <c r="H2" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="60">
+      <c r="H2" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="68">
         <v>84.5</v>
       </c>
-      <c r="J2" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="60">
+      <c r="J2" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="68">
         <v>81.3514285714286</v>
       </c>
-      <c r="L2" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="60">
+      <c r="L2" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="68">
         <v>75.6071428571429</v>
       </c>
-      <c r="N2" s="60" t="s">
+      <c r="N2" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="60">
+      <c r="O2" s="68">
         <v>80.3978571428571</v>
       </c>
-      <c r="P2" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="68"/>
-    </row>
-    <row r="3" s="55" customFormat="1" spans="1:27">
-      <c r="A3" s="38" t="s">
+      <c r="P2" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="71">
+        <v>80</v>
+      </c>
+      <c r="R2" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="71">
+        <v>80</v>
+      </c>
+      <c r="T2" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="71">
+        <v>80</v>
+      </c>
+      <c r="V2" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" s="71">
+        <v>80</v>
+      </c>
+      <c r="X2" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="75"/>
+    </row>
+    <row r="3" s="63" customFormat="1" spans="1:27">
+      <c r="A3" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="60">
+      <c r="C3" s="68">
         <v>89.8875</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="68">
         <v>94.095</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="60">
+      <c r="G3" s="68">
         <v>86.375</v>
       </c>
-      <c r="H3" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="60">
+      <c r="H3" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="68">
         <v>89.3928571428571</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="60">
+      <c r="K3" s="68">
         <v>86.6191428571429</v>
       </c>
-      <c r="L3" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="60">
+      <c r="L3" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="68">
         <v>85.3121428571429</v>
       </c>
-      <c r="N3" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="60">
+      <c r="N3" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="68">
         <v>85.68</v>
       </c>
-      <c r="P3" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="70"/>
-    </row>
-    <row r="4" s="55" customFormat="1" spans="1:27">
-      <c r="A4" s="38" t="s">
+      <c r="P3" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="71">
+        <v>80</v>
+      </c>
+      <c r="R3" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="71">
+        <v>80</v>
+      </c>
+      <c r="T3" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="71">
+        <v>80</v>
+      </c>
+      <c r="V3" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" s="71">
+        <v>80</v>
+      </c>
+      <c r="X3" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="77"/>
+    </row>
+    <row r="4" s="63" customFormat="1" spans="1:27">
+      <c r="A4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="68">
         <v>94.095</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="60">
+      <c r="E4" s="68">
         <v>94.365</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="60">
+      <c r="G4" s="68">
         <v>87.55</v>
       </c>
-      <c r="H4" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="60">
+      <c r="H4" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="68">
         <v>91.75</v>
       </c>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="60">
+      <c r="K4" s="68">
         <v>88.8601428571429</v>
       </c>
-      <c r="L4" s="60" t="s">
+      <c r="L4" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="60">
+      <c r="M4" s="68">
         <v>86.11</v>
       </c>
-      <c r="N4" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="60">
+      <c r="N4" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="68">
         <v>87.435</v>
       </c>
-      <c r="P4" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="70"/>
-    </row>
-    <row r="5" s="55" customFormat="1" spans="1:27">
-      <c r="A5" s="38" t="s">
+      <c r="P4" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="71">
+        <v>80</v>
+      </c>
+      <c r="R4" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="71">
+        <v>80</v>
+      </c>
+      <c r="T4" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="71">
+        <v>80</v>
+      </c>
+      <c r="V4" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" s="71">
+        <v>80</v>
+      </c>
+      <c r="X4" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="77"/>
+    </row>
+    <row r="5" s="63" customFormat="1" spans="1:27">
+      <c r="A5" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="68">
         <v>84.715</v>
       </c>
-      <c r="D5" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="60">
+      <c r="D5" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="68">
         <v>93.06</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="68">
         <v>83.75</v>
       </c>
-      <c r="H5" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="60">
+      <c r="H5" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="68">
         <v>89.7857142857143</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="60">
+      <c r="K5" s="68">
         <v>88.5964285714286</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="60">
+      <c r="M5" s="68">
         <v>79.0889285714286</v>
       </c>
-      <c r="N5" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="60">
+      <c r="N5" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="68">
         <v>85.8271428571429</v>
       </c>
-      <c r="P5" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="63"/>
-      <c r="T5" s="64"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="63"/>
-      <c r="W5" s="64"/>
-      <c r="X5" s="63"/>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="69"/>
-      <c r="AA5" s="70"/>
-    </row>
-    <row r="6" s="55" customFormat="1" spans="1:27">
-      <c r="A6" s="38" t="s">
+      <c r="P5" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="71">
+        <v>80</v>
+      </c>
+      <c r="R5" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="71">
+        <v>80</v>
+      </c>
+      <c r="T5" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="71">
+        <v>80</v>
+      </c>
+      <c r="V5" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="W5" s="71">
+        <v>80</v>
+      </c>
+      <c r="X5" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="77"/>
+    </row>
+    <row r="6" s="63" customFormat="1" spans="1:27">
+      <c r="A6" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C6" s="68">
         <v>92.0025</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="68">
         <v>93.78</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="60">
+      <c r="G6" s="68">
         <v>84.65</v>
       </c>
-      <c r="H6" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="60">
+      <c r="H6" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="68">
         <v>89.3928571428571</v>
       </c>
-      <c r="J6" s="60" t="s">
+      <c r="J6" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="60">
+      <c r="K6" s="68">
         <v>87.547</v>
       </c>
-      <c r="L6" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="60">
+      <c r="L6" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="68">
         <v>84.1428571428571</v>
       </c>
-      <c r="N6" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="60">
+      <c r="N6" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="68">
         <v>87.7535714285714</v>
       </c>
-      <c r="P6" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="63"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="70"/>
-    </row>
-    <row r="7" s="55" customFormat="1" spans="1:27">
-      <c r="A7" s="38" t="s">
+      <c r="P6" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="71">
+        <v>80</v>
+      </c>
+      <c r="R6" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" s="71">
+        <v>80</v>
+      </c>
+      <c r="T6" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6" s="71">
+        <v>80</v>
+      </c>
+      <c r="V6" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="W6" s="71">
+        <v>80</v>
+      </c>
+      <c r="X6" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="77"/>
+    </row>
+    <row r="7" s="63" customFormat="1" spans="1:27">
+      <c r="A7" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="68">
         <v>83.5875</v>
       </c>
-      <c r="D7" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="60">
+      <c r="D7" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="68">
         <v>93.825</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="60">
+      <c r="G7" s="68">
         <v>83.3</v>
       </c>
-      <c r="H7" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="60">
+      <c r="H7" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="68">
         <v>89.7857142857143</v>
       </c>
-      <c r="J7" s="60" t="s">
+      <c r="J7" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="60">
+      <c r="K7" s="68">
         <v>86.9647142857143</v>
       </c>
-      <c r="L7" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="60">
+      <c r="L7" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="68">
         <v>81.5857142857143</v>
       </c>
-      <c r="N7" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="60">
+      <c r="N7" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="68">
         <v>83.2085714285714</v>
       </c>
-      <c r="P7" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="63"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="63"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="70"/>
-    </row>
-    <row r="8" s="55" customFormat="1" spans="1:27">
-      <c r="A8" s="38" t="s">
+      <c r="P7" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="71">
+        <v>80</v>
+      </c>
+      <c r="R7" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="71">
+        <v>80</v>
+      </c>
+      <c r="T7" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="U7" s="71">
+        <v>80</v>
+      </c>
+      <c r="V7" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="W7" s="71">
+        <v>80</v>
+      </c>
+      <c r="X7" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y7" s="76"/>
+      <c r="Z7" s="76"/>
+      <c r="AA7" s="77"/>
+    </row>
+    <row r="8" s="63" customFormat="1" spans="1:27">
+      <c r="A8" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="60">
+      <c r="C8" s="68">
         <v>81.045</v>
       </c>
-      <c r="D8" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="60">
+      <c r="D8" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="68">
         <v>93.15</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="68">
         <v>80.3</v>
       </c>
-      <c r="H8" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="60">
+      <c r="H8" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="68">
         <v>85.9642857142857</v>
       </c>
-      <c r="J8" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="60">
+      <c r="J8" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="68">
         <v>86.3401428571429</v>
       </c>
-      <c r="L8" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="60">
+      <c r="L8" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="68">
         <v>79.2660714285714</v>
       </c>
-      <c r="N8" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" s="60">
+      <c r="N8" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="68">
         <v>85.6385714285714</v>
       </c>
-      <c r="P8" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="63"/>
-      <c r="Y8" s="69"/>
-      <c r="Z8" s="69"/>
-      <c r="AA8" s="70"/>
-    </row>
-    <row r="9" s="55" customFormat="1" spans="1:27">
-      <c r="A9" s="38" t="s">
+      <c r="P8" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="71">
+        <v>80</v>
+      </c>
+      <c r="R8" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" s="71">
+        <v>80</v>
+      </c>
+      <c r="T8" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="U8" s="71">
+        <v>80</v>
+      </c>
+      <c r="V8" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="W8" s="71">
+        <v>80</v>
+      </c>
+      <c r="X8" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y8" s="76"/>
+      <c r="Z8" s="76"/>
+      <c r="AA8" s="77"/>
+    </row>
+    <row r="9" s="63" customFormat="1" spans="1:27">
+      <c r="A9" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="68">
         <v>92.0475</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="68">
         <v>94.365</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="68">
         <v>86.35</v>
       </c>
-      <c r="H9" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="60">
+      <c r="H9" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="68">
         <v>90.9642857142857</v>
       </c>
-      <c r="J9" s="60" t="s">
+      <c r="J9" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="60">
+      <c r="K9" s="68">
         <v>87.3337142857143</v>
       </c>
-      <c r="L9" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" s="60">
+      <c r="L9" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="68">
         <v>87.3335714285714</v>
       </c>
-      <c r="N9" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="60">
+      <c r="N9" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="68">
         <v>87.4714285714286</v>
       </c>
-      <c r="P9" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="63"/>
-      <c r="Y9" s="69"/>
-      <c r="Z9" s="69"/>
-      <c r="AA9" s="70"/>
-    </row>
-    <row r="10" s="55" customFormat="1" spans="1:27">
-      <c r="A10" s="38" t="s">
+      <c r="P9" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="71">
+        <v>80</v>
+      </c>
+      <c r="R9" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" s="71">
+        <v>80</v>
+      </c>
+      <c r="T9" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9" s="71">
+        <v>80</v>
+      </c>
+      <c r="V9" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="W9" s="71">
+        <v>80</v>
+      </c>
+      <c r="X9" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="77"/>
+    </row>
+    <row r="10" s="63" customFormat="1" spans="1:27">
+      <c r="A10" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="60">
+      <c r="C10" s="68">
         <v>91.555</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="68">
         <v>94.23</v>
       </c>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="68">
         <v>86.45</v>
       </c>
-      <c r="H10" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="60">
+      <c r="H10" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="68">
         <v>91.3571428571429</v>
       </c>
-      <c r="J10" s="60" t="s">
+      <c r="J10" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="60">
+      <c r="K10" s="68">
         <v>84.0487142857143</v>
       </c>
-      <c r="L10" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="60">
+      <c r="L10" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="68">
         <v>84.2621428571429</v>
       </c>
-      <c r="N10" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" s="60">
+      <c r="N10" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="68">
         <v>85.7285714285714</v>
       </c>
-      <c r="P10" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="63"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="63"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="63"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="70"/>
-    </row>
-    <row r="11" s="55" customFormat="1" spans="1:27">
-      <c r="A11" s="38" t="s">
+      <c r="P10" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="71">
+        <v>80</v>
+      </c>
+      <c r="R10" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" s="71">
+        <v>80</v>
+      </c>
+      <c r="T10" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10" s="71">
+        <v>80</v>
+      </c>
+      <c r="V10" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="W10" s="71">
+        <v>80</v>
+      </c>
+      <c r="X10" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="77"/>
+    </row>
+    <row r="11" s="63" customFormat="1" spans="1:27">
+      <c r="A11" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="68">
         <v>83.5675</v>
       </c>
-      <c r="D11" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="60">
+      <c r="D11" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="68">
         <v>92.295</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="60">
+      <c r="G11" s="68">
         <v>83.75</v>
       </c>
-      <c r="H11" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="60">
+      <c r="H11" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="68">
         <v>86.75</v>
       </c>
-      <c r="J11" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="60">
+      <c r="J11" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="68">
         <v>82.687</v>
       </c>
-      <c r="L11" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="60">
+      <c r="L11" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="68">
         <v>78.6528571428572</v>
       </c>
-      <c r="N11" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" s="60">
+      <c r="N11" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="68">
         <v>81.7235714285714</v>
       </c>
-      <c r="P11" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="63"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="63"/>
-      <c r="Y11" s="69"/>
-      <c r="Z11" s="69"/>
-      <c r="AA11" s="70"/>
-    </row>
-    <row r="12" s="55" customFormat="1" spans="1:27">
-      <c r="A12" s="38" t="s">
+      <c r="P11" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="71">
+        <v>80</v>
+      </c>
+      <c r="R11" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="S11" s="71">
+        <v>80</v>
+      </c>
+      <c r="T11" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="U11" s="71">
+        <v>80</v>
+      </c>
+      <c r="V11" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="W11" s="71">
+        <v>80</v>
+      </c>
+      <c r="X11" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y11" s="76"/>
+      <c r="Z11" s="76"/>
+      <c r="AA11" s="77"/>
+    </row>
+    <row r="12" s="63" customFormat="1" spans="1:27">
+      <c r="A12" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="68">
         <v>91.5075</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="68">
         <v>94.14</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="60">
+      <c r="G12" s="68">
         <v>85.1</v>
       </c>
-      <c r="H12" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="60">
+      <c r="H12" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="68">
         <v>91.3571428571429</v>
       </c>
-      <c r="J12" s="60" t="s">
+      <c r="J12" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="60">
+      <c r="K12" s="68">
         <v>91.3801428571429</v>
       </c>
-      <c r="L12" s="60" t="s">
+      <c r="L12" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="M12" s="60">
+      <c r="M12" s="68">
         <v>88.6057142857143</v>
       </c>
-      <c r="N12" s="60" t="s">
+      <c r="N12" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="O12" s="60">
+      <c r="O12" s="68">
         <v>88.38</v>
       </c>
-      <c r="P12" s="60" t="s">
+      <c r="P12" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="63"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="63"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="69"/>
-      <c r="AA12" s="70"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="38" t="s">
+      <c r="Q12" s="71">
+        <v>80</v>
+      </c>
+      <c r="R12" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12" s="71">
+        <v>80</v>
+      </c>
+      <c r="T12" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="U12" s="71">
+        <v>80</v>
+      </c>
+      <c r="V12" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="W12" s="71">
+        <v>80</v>
+      </c>
+      <c r="X12" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="77"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="68">
         <v>93.285</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="68">
         <v>94.5</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="57">
+      <c r="G13" s="68">
         <v>86</v>
       </c>
-      <c r="H13" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="57">
+      <c r="H13" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="68">
         <v>91.3571428571429</v>
       </c>
-      <c r="J13" s="57" t="s">
+      <c r="J13" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="57">
+      <c r="K13" s="68">
         <v>90.9751428571429</v>
       </c>
-      <c r="L13" s="57" t="s">
+      <c r="L13" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="M13" s="57">
+      <c r="M13" s="68">
         <v>89.6660714285714</v>
       </c>
-      <c r="N13" s="57" t="s">
+      <c r="N13" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="57">
+      <c r="O13" s="68">
         <v>87.4714285714286</v>
       </c>
-      <c r="P13" s="57" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="38" t="s">
+      <c r="P13" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="65">
+        <v>80</v>
+      </c>
+      <c r="R13" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="S13" s="65">
+        <v>80</v>
+      </c>
+      <c r="T13" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="U13" s="65">
+        <v>80</v>
+      </c>
+      <c r="V13" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="W13" s="65">
+        <v>80</v>
+      </c>
+      <c r="X13" s="65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="68">
         <v>87.5925</v>
       </c>
-      <c r="D14" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="57">
+      <c r="D14" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="68">
         <v>93.69</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="57">
+      <c r="G14" s="68">
         <v>82.85</v>
       </c>
-      <c r="H14" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="57">
+      <c r="H14" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="68">
         <v>91.3571428571429</v>
       </c>
-      <c r="J14" s="57" t="s">
+      <c r="J14" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="57">
+      <c r="K14" s="68">
         <v>84.3997142857143</v>
       </c>
-      <c r="L14" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" s="57">
+      <c r="L14" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="68">
         <v>85.0075</v>
       </c>
-      <c r="N14" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="O14" s="57">
+      <c r="N14" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="68">
         <v>88.92</v>
       </c>
-      <c r="P14" s="57" t="s">
+      <c r="P14" s="65" t="s">
         <v>34</v>
+      </c>
+      <c r="Q14" s="65">
+        <v>80</v>
+      </c>
+      <c r="R14" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14" s="65">
+        <v>80</v>
+      </c>
+      <c r="T14" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="U14" s="65">
+        <v>80</v>
+      </c>
+      <c r="V14" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="W14" s="65">
+        <v>80</v>
+      </c>
+      <c r="X14" s="65" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2840,544 +3046,654 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L13" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:F14"/>
+      <selection pane="bottomRight" activeCell="R2" sqref="R2:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.8583333333333" style="34" customWidth="1"/>
+    <col min="1" max="1" width="10.8583333333333" style="48" customWidth="1"/>
     <col min="2" max="2" width="28.2833333333333" customWidth="1"/>
-    <col min="3" max="11" width="35.7083333333333" style="35" customWidth="1"/>
-    <col min="12" max="12" width="37.425" style="35" customWidth="1"/>
-    <col min="13" max="13" width="35.7083333333333" style="35" customWidth="1"/>
+    <col min="3" max="11" width="35.7083333333333" style="49" customWidth="1"/>
+    <col min="12" max="12" width="37.425" style="49" customWidth="1"/>
+    <col min="13" max="13" width="35.7083333333333" style="49" customWidth="1"/>
     <col min="14" max="14" width="35.8583333333333" customWidth="1"/>
     <col min="18" max="18" width="23.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:18">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="53" t="s">
+      <c r="N1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="53" t="s">
+      <c r="O1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="53" t="s">
+      <c r="P1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="53" t="s">
+      <c r="Q1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="R1" s="53" t="s">
+      <c r="R1" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="180.75" spans="1:18">
-      <c r="A2" s="38" t="str">
+    <row r="2" s="16" customFormat="1" ht="180.75" spans="1:18">
+      <c r="A2" s="52" t="str">
         <f>'ANGKA (Input Nilai)'!A2</f>
         <v>21.02.019</v>
       </c>
-      <c r="B2" s="38" t="str">
+      <c r="B2" s="52" t="str">
         <f>'ANGKA (Input Nilai)'!B2</f>
         <v>ARVIANDOW FEBRIANSYAH</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="210.75" spans="1:18">
-      <c r="A3" s="38" t="str">
+      <c r="J2" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" s="16" customFormat="1" ht="210.75" spans="1:18">
+      <c r="A3" s="52" t="str">
         <f>'ANGKA (Input Nilai)'!A3</f>
         <v>21.02.020</v>
       </c>
-      <c r="B3" s="38" t="str">
+      <c r="B3" s="52" t="str">
         <f>'ANGKA (Input Nilai)'!B3</f>
         <v>AYATURRAHMAN SHINRA AUFA</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="L3" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="M3" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" s="71" t="s">
+      <c r="N3" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="210.75" spans="1:18">
-      <c r="A4" s="38" t="str">
+    </row>
+    <row r="4" s="16" customFormat="1" ht="210.75" spans="1:18">
+      <c r="A4" s="52" t="str">
         <f>'ANGKA (Input Nilai)'!A4</f>
         <v>21.02.021</v>
       </c>
-      <c r="B4" s="38" t="str">
+      <c r="B4" s="52" t="str">
         <f>'ANGKA (Input Nilai)'!B4</f>
         <v>HAZWAN HAFIZUDDIN</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" s="71" t="s">
+      <c r="L4" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="210.75" spans="1:18">
-      <c r="A5" s="38" t="str">
+    </row>
+    <row r="5" s="16" customFormat="1" ht="210.75" spans="1:18">
+      <c r="A5" s="52" t="str">
         <f>'ANGKA (Input Nilai)'!A5</f>
         <v>21.02.022</v>
       </c>
-      <c r="B5" s="38" t="str">
+      <c r="B5" s="52" t="str">
         <f>'ANGKA (Input Nilai)'!B5</f>
         <v>KHALID GHAZY MURTADHO</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="I5" s="71" t="s">
+      <c r="M5" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="285.75" spans="1:18">
-      <c r="A6" s="38" t="str">
+    </row>
+    <row r="6" s="16" customFormat="1" ht="285.75" spans="1:18">
+      <c r="A6" s="52" t="str">
         <f>'ANGKA (Input Nilai)'!A6</f>
         <v>21.02.031</v>
       </c>
-      <c r="B6" s="38" t="str">
+      <c r="B6" s="52" t="str">
         <f>'ANGKA (Input Nilai)'!B6</f>
         <v>MILA NAJIYAH</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="71" t="s">
+      <c r="L6" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="210.75" spans="1:18">
-      <c r="A7" s="38" t="str">
+    </row>
+    <row r="7" s="16" customFormat="1" ht="210.75" spans="1:18">
+      <c r="A7" s="52" t="str">
         <f>'ANGKA (Input Nilai)'!A7</f>
         <v>21.02.023</v>
       </c>
-      <c r="B7" s="38" t="str">
+      <c r="B7" s="52" t="str">
         <f>'ANGKA (Input Nilai)'!B7</f>
         <v>MUHAMMAD RADJA MAHESA PAHLEVI</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="I7" s="72" t="s">
+      <c r="M7" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="180.75" spans="1:18">
-      <c r="A8" s="38" t="str">
+    </row>
+    <row r="8" s="16" customFormat="1" ht="180.75" spans="1:18">
+      <c r="A8" s="52" t="str">
         <f>'ANGKA (Input Nilai)'!A8</f>
         <v>21.02.025</v>
       </c>
-      <c r="B8" s="38" t="str">
+      <c r="B8" s="52" t="str">
         <f>'ANGKA (Input Nilai)'!B8</f>
         <v>MUHAMMAD RAYHAN</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="39" t="s">
+      <c r="E8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="I8" s="72" t="s">
+      <c r="H8" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="N8" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="210.75" spans="1:18">
-      <c r="A9" s="38" t="str">
+    </row>
+    <row r="9" s="16" customFormat="1" ht="210.75" spans="1:18">
+      <c r="A9" s="52" t="str">
         <f>'ANGKA (Input Nilai)'!A9</f>
         <v>21.02.032</v>
       </c>
-      <c r="B9" s="38" t="str">
+      <c r="B9" s="52" t="str">
         <f>'ANGKA (Input Nilai)'!B9</f>
         <v>NAJWA HANI FILLAH</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" s="71" t="s">
+      <c r="L9" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="270.75" spans="1:18">
-      <c r="A10" s="38" t="str">
+    </row>
+    <row r="10" s="16" customFormat="1" ht="270.75" spans="1:18">
+      <c r="A10" s="52" t="str">
         <f>'ANGKA (Input Nilai)'!A10</f>
         <v>21.02.033</v>
       </c>
-      <c r="B10" s="38" t="str">
+      <c r="B10" s="52" t="str">
         <f>'ANGKA (Input Nilai)'!B10</f>
         <v>NAYLA IZZATUL HASANAH</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="39" t="s">
+      <c r="L10" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="I10" s="71" t="s">
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="285.75" spans="1:18">
-      <c r="A11" s="38" t="str">
+    </row>
+    <row r="11" s="16" customFormat="1" ht="285.75" spans="1:18">
+      <c r="A11" s="52" t="str">
         <f>'ANGKA (Input Nilai)'!A11</f>
         <v>21.02.034</v>
       </c>
-      <c r="B11" s="38" t="str">
+      <c r="B11" s="52" t="str">
         <f>'ANGKA (Input Nilai)'!B11</f>
         <v>NIDA KHALWATUS SYAHIDAH</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="39" t="s">
+      <c r="E11" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="I11" s="50" t="s">
+      <c r="H11" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="210.75" spans="1:18">
-      <c r="A12" s="38" t="str">
+      <c r="J11" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" s="16" customFormat="1" ht="210.75" spans="1:18">
+      <c r="A12" s="52" t="str">
         <f>'ANGKA (Input Nilai)'!A12</f>
         <v>21.02.027</v>
       </c>
-      <c r="B12" s="38" t="str">
+      <c r="B12" s="52" t="str">
         <f>'ANGKA (Input Nilai)'!B12</f>
         <v>RIHAL MUHARRIKUL HAQ</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="I12" s="71" t="s">
-        <v>105</v>
-      </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="54" t="s">
-        <v>80</v>
+      <c r="L12" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="N12" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="62" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13" ht="210.75" spans="1:18">
-      <c r="A13" s="34" t="str">
+      <c r="A13" s="48" t="str">
         <f>'ANGKA (Input Nilai)'!A13</f>
         <v>21.02.036</v>
       </c>
@@ -3385,33 +3701,48 @@
         <f>'ANGKA (Input Nilai)'!B13</f>
         <v>SAFARAZ AUFA RIFDAH</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="L13" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="I13" s="73" t="s">
+      <c r="M13" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="N13" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="R13" t="s">
         <v>85</v>
       </c>
-      <c r="R13" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="14" ht="240" spans="1:18">
-      <c r="A14" s="34" t="str">
+      <c r="A14" s="48" t="str">
         <f>'ANGKA (Input Nilai)'!A14</f>
         <v>21.02.038</v>
       </c>
@@ -3419,29 +3750,44 @@
         <f>'ANGKA (Input Nilai)'!B14</f>
         <v>WALDAN FA'IQ HASAN</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="35" t="s">
+      <c r="E14" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="I14" s="73" t="s">
-        <v>105</v>
+      <c r="H14" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="N14" s="25" t="s">
+        <v>84</v>
       </c>
       <c r="R14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3459,8 +3805,8 @@
   </sheetPr>
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3470,1281 +3816,1282 @@
     <col min="3" max="3" width="33.75" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
     <col min="5" max="15" width="6" customWidth="1"/>
-    <col min="16" max="17" width="7" style="4" customWidth="1"/>
+    <col min="16" max="16" width="14.75" style="18" customWidth="1"/>
+    <col min="17" max="17" width="7" style="18" customWidth="1"/>
     <col min="18" max="18" width="6.70833333333333" customWidth="1"/>
     <col min="19" max="21" width="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="114.75" customHeight="1" spans="1:21">
-      <c r="A1" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
+      <c r="A1" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
+      <c r="A2" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
+      <c r="A3" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
     </row>
     <row r="4" ht="27" customHeight="1"/>
     <row r="5" ht="75.75" customHeight="1" spans="1:21">
-      <c r="A5" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="L5" s="21" t="s">
+      <c r="D5" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="E5" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="F5" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="O5" s="28" t="s">
+      <c r="G5" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="P5" s="29" t="s">
+      <c r="H5" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="Q5" s="29" t="s">
+      <c r="I5" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="R5" s="29" t="s">
+      <c r="J5" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="K5" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="L5" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="M5" s="39" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="30" spans="1:21">
-      <c r="A6" s="9">
+      <c r="N5" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="O5" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="P5" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q5" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="R5" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="S5" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="T5" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" s="16" customFormat="1" ht="30" spans="1:21">
+      <c r="A6" s="23">
         <v>1</v>
       </c>
-      <c r="B6" s="9" t="str">
+      <c r="B6" s="23" t="str">
         <f>Deskripsi!A2</f>
         <v>21.02.019</v>
       </c>
-      <c r="C6" s="10" t="str">
+      <c r="C6" s="24" t="str">
         <f>'ANGKA (Input Nilai)'!B2</f>
         <v>ARVIANDOW FEBRIANSYAH</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="22">
+      <c r="D6" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="35">
         <f>'ANGKA (Input Nilai)'!C2</f>
         <v>79.0875</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="35">
         <f>'ANGKA (Input Nilai)'!E2</f>
         <v>93.42</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="35">
         <f>'ANGKA (Input Nilai)'!G2</f>
         <v>81.95</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="35">
         <f>'ANGKA (Input Nilai)'!I2</f>
         <v>84.5</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="35">
         <f>'ANGKA (Input Nilai)'!K2</f>
         <v>81.3514285714286</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="35">
         <f>'ANGKA (Input Nilai)'!M2</f>
         <v>75.6071428571429</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="35">
         <f>'ANGKA (Input Nilai)'!O2</f>
         <v>80.3978571428571</v>
       </c>
-      <c r="L6" s="22">
-        <v>80</v>
-      </c>
-      <c r="M6" s="22">
-        <v>80</v>
-      </c>
-      <c r="N6" s="22">
-        <v>80</v>
-      </c>
-      <c r="O6" s="22">
-        <v>80</v>
-      </c>
-      <c r="P6" s="7">
+      <c r="L6" s="35">
+        <v>80</v>
+      </c>
+      <c r="M6" s="35">
+        <v>80</v>
+      </c>
+      <c r="N6" s="35">
+        <v>80</v>
+      </c>
+      <c r="O6" s="35">
+        <v>80</v>
+      </c>
+      <c r="P6" s="43">
         <f t="shared" ref="P6:P18" si="0">SUM(E6:K6)</f>
         <v>576.313928571429</v>
       </c>
-      <c r="Q6" s="24">
+      <c r="Q6" s="37">
         <f t="shared" ref="Q6:Q21" si="1">AVERAGE(E6,F6,G6,H6,I6,J6,K6)</f>
         <v>82.3305612244898</v>
       </c>
-      <c r="R6" s="31">
+      <c r="R6" s="45">
         <f t="shared" ref="R6:R18" si="2">RANK(P6,$P$6:$P$18)</f>
         <v>13</v>
       </c>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="9">
+      <c r="A7" s="23">
         <v>2</v>
       </c>
-      <c r="B7" s="9" t="str">
+      <c r="B7" s="23" t="str">
         <f>Deskripsi!A3</f>
         <v>21.02.020</v>
       </c>
-      <c r="C7" s="10" t="str">
+      <c r="C7" s="24" t="str">
         <f>'ANGKA (Input Nilai)'!B3</f>
         <v>AYATURRAHMAN SHINRA AUFA</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="22">
+      <c r="D7" s="24"/>
+      <c r="E7" s="35">
         <f>'ANGKA (Input Nilai)'!C3</f>
         <v>89.8875</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="35">
         <f>'ANGKA (Input Nilai)'!E3</f>
         <v>94.095</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="35">
         <f>'ANGKA (Input Nilai)'!G3</f>
         <v>86.375</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="35">
         <f>'ANGKA (Input Nilai)'!I3</f>
         <v>89.3928571428571</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="35">
         <f>'ANGKA (Input Nilai)'!K3</f>
         <v>86.6191428571429</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="35">
         <f>'ANGKA (Input Nilai)'!M3</f>
         <v>85.3121428571429</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="35">
         <f>'ANGKA (Input Nilai)'!O3</f>
         <v>85.68</v>
       </c>
-      <c r="L7" s="22">
-        <v>80</v>
-      </c>
-      <c r="M7" s="22">
-        <v>80</v>
-      </c>
-      <c r="N7" s="22">
-        <v>80</v>
-      </c>
-      <c r="O7" s="22">
-        <v>80</v>
-      </c>
-      <c r="P7" s="7">
+      <c r="L7" s="35">
+        <v>80</v>
+      </c>
+      <c r="M7" s="35">
+        <v>80</v>
+      </c>
+      <c r="N7" s="35">
+        <v>80</v>
+      </c>
+      <c r="O7" s="35">
+        <v>80</v>
+      </c>
+      <c r="P7" s="43">
         <f t="shared" si="0"/>
         <v>617.361642857143</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="Q7" s="37">
         <f t="shared" si="1"/>
         <v>88.1945204081633</v>
       </c>
-      <c r="R7" s="31">
+      <c r="R7" s="45">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="9">
+      <c r="A8" s="23">
         <v>3</v>
       </c>
-      <c r="B8" s="9" t="str">
+      <c r="B8" s="23" t="str">
         <f>Deskripsi!A4</f>
         <v>21.02.021</v>
       </c>
-      <c r="C8" s="12" t="str">
+      <c r="C8" s="26" t="str">
         <f>'ANGKA (Input Nilai)'!B4</f>
         <v>HAZWAN HAFIZUDDIN</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="22">
+      <c r="D8" s="26"/>
+      <c r="E8" s="35">
         <f>'ANGKA (Input Nilai)'!C4</f>
         <v>94.095</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="35">
         <f>'ANGKA (Input Nilai)'!E4</f>
         <v>94.365</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="35">
         <f>'ANGKA (Input Nilai)'!G4</f>
         <v>87.55</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="35">
         <f>'ANGKA (Input Nilai)'!I4</f>
         <v>91.75</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="35">
         <f>'ANGKA (Input Nilai)'!K4</f>
         <v>88.8601428571429</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="35">
         <f>'ANGKA (Input Nilai)'!M4</f>
         <v>86.11</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="35">
         <f>'ANGKA (Input Nilai)'!O4</f>
         <v>87.435</v>
       </c>
-      <c r="L8" s="22">
-        <v>80</v>
-      </c>
-      <c r="M8" s="22">
-        <v>80</v>
-      </c>
-      <c r="N8" s="22">
-        <v>80</v>
-      </c>
-      <c r="O8" s="22">
-        <v>80</v>
-      </c>
-      <c r="P8" s="7">
+      <c r="L8" s="35">
+        <v>80</v>
+      </c>
+      <c r="M8" s="35">
+        <v>80</v>
+      </c>
+      <c r="N8" s="35">
+        <v>80</v>
+      </c>
+      <c r="O8" s="35">
+        <v>80</v>
+      </c>
+      <c r="P8" s="43">
         <f t="shared" si="0"/>
         <v>630.165142857143</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="37">
         <f t="shared" si="1"/>
         <v>90.0235918367347</v>
       </c>
-      <c r="R8" s="33">
+      <c r="R8" s="47">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="9">
+      <c r="A9" s="23">
         <v>4</v>
       </c>
-      <c r="B9" s="9" t="str">
+      <c r="B9" s="23" t="str">
         <f>Deskripsi!A5</f>
         <v>21.02.022</v>
       </c>
-      <c r="C9" s="10" t="str">
+      <c r="C9" s="24" t="str">
         <f>'ANGKA (Input Nilai)'!B5</f>
         <v>KHALID GHAZY MURTADHO</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" s="22">
+      <c r="D9" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="35">
         <f>'ANGKA (Input Nilai)'!C5</f>
         <v>84.715</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="35">
         <f>'ANGKA (Input Nilai)'!E5</f>
         <v>93.06</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="35">
         <f>'ANGKA (Input Nilai)'!G5</f>
         <v>83.75</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="35">
         <f>'ANGKA (Input Nilai)'!I5</f>
         <v>89.7857142857143</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="35">
         <f>'ANGKA (Input Nilai)'!K5</f>
         <v>88.5964285714286</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="35">
         <f>'ANGKA (Input Nilai)'!M5</f>
         <v>79.0889285714286</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="35">
         <f>'ANGKA (Input Nilai)'!O5</f>
         <v>85.8271428571429</v>
       </c>
-      <c r="L9" s="22">
-        <v>80</v>
-      </c>
-      <c r="M9" s="22">
-        <v>80</v>
-      </c>
-      <c r="N9" s="22">
-        <v>80</v>
-      </c>
-      <c r="O9" s="22">
-        <v>80</v>
-      </c>
-      <c r="P9" s="7">
+      <c r="L9" s="35">
+        <v>80</v>
+      </c>
+      <c r="M9" s="35">
+        <v>80</v>
+      </c>
+      <c r="N9" s="35">
+        <v>80</v>
+      </c>
+      <c r="O9" s="35">
+        <v>80</v>
+      </c>
+      <c r="P9" s="43">
         <f t="shared" si="0"/>
         <v>604.823214285714</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="Q9" s="37">
         <f t="shared" si="1"/>
         <v>86.4033163265306</v>
       </c>
-      <c r="R9" s="31">
+      <c r="R9" s="45">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="9">
+      <c r="A10" s="23">
         <v>5</v>
       </c>
-      <c r="B10" s="9" t="str">
+      <c r="B10" s="23" t="str">
         <f>Deskripsi!A6</f>
         <v>21.02.031</v>
       </c>
-      <c r="C10" s="10" t="str">
+      <c r="C10" s="24" t="str">
         <f>'ANGKA (Input Nilai)'!B6</f>
         <v>MILA NAJIYAH</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E10" s="22">
+      <c r="D10" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="35">
         <f>'ANGKA (Input Nilai)'!C6</f>
         <v>92.0025</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="35">
         <f>'ANGKA (Input Nilai)'!E6</f>
         <v>93.78</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="35">
         <f>'ANGKA (Input Nilai)'!G6</f>
         <v>84.65</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="35">
         <f>'ANGKA (Input Nilai)'!I6</f>
         <v>89.3928571428571</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="35">
         <f>'ANGKA (Input Nilai)'!K6</f>
         <v>87.547</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="35">
         <f>'ANGKA (Input Nilai)'!M6</f>
         <v>84.1428571428571</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="35">
         <f>'ANGKA (Input Nilai)'!O6</f>
         <v>87.7535714285714</v>
       </c>
-      <c r="L10" s="22">
-        <v>80</v>
-      </c>
-      <c r="M10" s="22">
-        <v>80</v>
-      </c>
-      <c r="N10" s="22">
-        <v>80</v>
-      </c>
-      <c r="O10" s="22">
-        <v>80</v>
-      </c>
-      <c r="P10" s="7">
+      <c r="L10" s="35">
+        <v>80</v>
+      </c>
+      <c r="M10" s="35">
+        <v>80</v>
+      </c>
+      <c r="N10" s="35">
+        <v>80</v>
+      </c>
+      <c r="O10" s="35">
+        <v>80</v>
+      </c>
+      <c r="P10" s="43">
         <f t="shared" si="0"/>
         <v>619.268785714286</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="Q10" s="37">
         <f t="shared" si="1"/>
         <v>88.4669693877551</v>
       </c>
-      <c r="R10" s="31">
+      <c r="R10" s="45">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="9">
+      <c r="A11" s="23">
         <v>6</v>
       </c>
-      <c r="B11" s="9" t="str">
+      <c r="B11" s="23" t="str">
         <f>Deskripsi!A7</f>
         <v>21.02.023</v>
       </c>
-      <c r="C11" s="10" t="str">
+      <c r="C11" s="24" t="str">
         <f>'ANGKA (Input Nilai)'!B7</f>
         <v>MUHAMMAD RADJA MAHESA PAHLEVI</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="22">
+      <c r="D11" s="24"/>
+      <c r="E11" s="35">
         <f>'ANGKA (Input Nilai)'!C7</f>
         <v>83.5875</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="35">
         <f>'ANGKA (Input Nilai)'!E7</f>
         <v>93.825</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="35">
         <f>'ANGKA (Input Nilai)'!G7</f>
         <v>83.3</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="35">
         <f>'ANGKA (Input Nilai)'!I7</f>
         <v>89.7857142857143</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="35">
         <f>'ANGKA (Input Nilai)'!K7</f>
         <v>86.9647142857143</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="35">
         <f>'ANGKA (Input Nilai)'!M7</f>
         <v>81.5857142857143</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="35">
         <f>'ANGKA (Input Nilai)'!O7</f>
         <v>83.2085714285714</v>
       </c>
-      <c r="L11" s="22">
-        <v>80</v>
-      </c>
-      <c r="M11" s="22">
-        <v>80</v>
-      </c>
-      <c r="N11" s="22">
-        <v>80</v>
-      </c>
-      <c r="O11" s="22">
-        <v>80</v>
-      </c>
-      <c r="P11" s="7">
+      <c r="L11" s="35">
+        <v>80</v>
+      </c>
+      <c r="M11" s="35">
+        <v>80</v>
+      </c>
+      <c r="N11" s="35">
+        <v>80</v>
+      </c>
+      <c r="O11" s="35">
+        <v>80</v>
+      </c>
+      <c r="P11" s="43">
         <f t="shared" si="0"/>
         <v>602.257214285714</v>
       </c>
-      <c r="Q11" s="24">
+      <c r="Q11" s="37">
         <f t="shared" si="1"/>
         <v>86.0367448979592</v>
       </c>
-      <c r="R11" s="31">
+      <c r="R11" s="45">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="9">
+      <c r="A12" s="23">
         <v>7</v>
       </c>
-      <c r="B12" s="9" t="str">
+      <c r="B12" s="23" t="str">
         <f>Deskripsi!A8</f>
         <v>21.02.025</v>
       </c>
-      <c r="C12" s="10" t="str">
+      <c r="C12" s="24" t="str">
         <f>'ANGKA (Input Nilai)'!B8</f>
         <v>MUHAMMAD RAYHAN</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="22">
+      <c r="D12" s="24"/>
+      <c r="E12" s="35">
         <f>'ANGKA (Input Nilai)'!C8</f>
         <v>81.045</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="35">
         <f>'ANGKA (Input Nilai)'!E8</f>
         <v>93.15</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="35">
         <f>'ANGKA (Input Nilai)'!G8</f>
         <v>80.3</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="35">
         <f>'ANGKA (Input Nilai)'!I8</f>
         <v>85.9642857142857</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="35">
         <f>'ANGKA (Input Nilai)'!K8</f>
         <v>86.3401428571429</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="35">
         <f>'ANGKA (Input Nilai)'!M8</f>
         <v>79.2660714285714</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="35">
         <f>'ANGKA (Input Nilai)'!O8</f>
         <v>85.6385714285714</v>
       </c>
-      <c r="L12" s="22">
-        <v>80</v>
-      </c>
-      <c r="M12" s="22">
-        <v>80</v>
-      </c>
-      <c r="N12" s="22">
-        <v>80</v>
-      </c>
-      <c r="O12" s="22">
-        <v>80</v>
-      </c>
-      <c r="P12" s="7">
+      <c r="L12" s="35">
+        <v>80</v>
+      </c>
+      <c r="M12" s="35">
+        <v>80</v>
+      </c>
+      <c r="N12" s="35">
+        <v>80</v>
+      </c>
+      <c r="O12" s="35">
+        <v>80</v>
+      </c>
+      <c r="P12" s="43">
         <f t="shared" si="0"/>
         <v>591.704071428571</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12" s="37">
         <f t="shared" si="1"/>
         <v>84.5291530612245</v>
       </c>
-      <c r="R12" s="31">
+      <c r="R12" s="45">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="9">
+      <c r="A13" s="23">
         <v>8</v>
       </c>
-      <c r="B13" s="9" t="str">
+      <c r="B13" s="23" t="str">
         <f>Deskripsi!A9</f>
         <v>21.02.032</v>
       </c>
-      <c r="C13" s="10" t="str">
+      <c r="C13" s="24" t="str">
         <f>'ANGKA (Input Nilai)'!B9</f>
         <v>NAJWA HANI FILLAH</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="22">
+      <c r="D13" s="24"/>
+      <c r="E13" s="35">
         <f>'ANGKA (Input Nilai)'!C9</f>
         <v>92.0475</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="35">
         <f>'ANGKA (Input Nilai)'!E9</f>
         <v>94.365</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="35">
         <f>'ANGKA (Input Nilai)'!G9</f>
         <v>86.35</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="35">
         <f>'ANGKA (Input Nilai)'!I9</f>
         <v>90.9642857142857</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="35">
         <f>'ANGKA (Input Nilai)'!K9</f>
         <v>87.3337142857143</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="35">
         <f>'ANGKA (Input Nilai)'!M9</f>
         <v>87.3335714285714</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="35">
         <f>'ANGKA (Input Nilai)'!O9</f>
         <v>87.4714285714286</v>
       </c>
-      <c r="L13" s="22">
-        <v>80</v>
-      </c>
-      <c r="M13" s="22">
-        <v>80</v>
-      </c>
-      <c r="N13" s="22">
-        <v>80</v>
-      </c>
-      <c r="O13" s="22">
-        <v>80</v>
-      </c>
-      <c r="P13" s="7">
+      <c r="L13" s="35">
+        <v>80</v>
+      </c>
+      <c r="M13" s="35">
+        <v>80</v>
+      </c>
+      <c r="N13" s="35">
+        <v>80</v>
+      </c>
+      <c r="O13" s="35">
+        <v>80</v>
+      </c>
+      <c r="P13" s="43">
         <f t="shared" si="0"/>
         <v>625.8655</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="Q13" s="37">
         <f t="shared" si="1"/>
         <v>89.4093571428571</v>
       </c>
-      <c r="R13" s="31">
+      <c r="R13" s="45">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
     </row>
     <row r="14" ht="30" spans="1:21">
-      <c r="A14" s="9">
+      <c r="A14" s="23">
         <v>9</v>
       </c>
-      <c r="B14" s="9" t="str">
+      <c r="B14" s="23" t="str">
         <f>Deskripsi!A10</f>
         <v>21.02.033</v>
       </c>
-      <c r="C14" s="10" t="str">
+      <c r="C14" s="24" t="str">
         <f>'ANGKA (Input Nilai)'!B10</f>
         <v>NAYLA IZZATUL HASANAH</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="22">
+      <c r="D14" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="35">
         <f>'ANGKA (Input Nilai)'!C10</f>
         <v>91.555</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="35">
         <f>'ANGKA (Input Nilai)'!E10</f>
         <v>94.23</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="35">
         <f>'ANGKA (Input Nilai)'!G10</f>
         <v>86.45</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="35">
         <f>'ANGKA (Input Nilai)'!I10</f>
         <v>91.3571428571429</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="35">
         <f>'ANGKA (Input Nilai)'!K10</f>
         <v>84.0487142857143</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="35">
         <f>'ANGKA (Input Nilai)'!M10</f>
         <v>84.2621428571429</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="35">
         <f>'ANGKA (Input Nilai)'!O10</f>
         <v>85.7285714285714</v>
       </c>
-      <c r="L14" s="22">
-        <v>80</v>
-      </c>
-      <c r="M14" s="22">
-        <v>80</v>
-      </c>
-      <c r="N14" s="22">
-        <v>80</v>
-      </c>
-      <c r="O14" s="22">
-        <v>80</v>
-      </c>
-      <c r="P14" s="7">
+      <c r="L14" s="35">
+        <v>80</v>
+      </c>
+      <c r="M14" s="35">
+        <v>80</v>
+      </c>
+      <c r="N14" s="35">
+        <v>80</v>
+      </c>
+      <c r="O14" s="35">
+        <v>80</v>
+      </c>
+      <c r="P14" s="43">
         <f t="shared" si="0"/>
         <v>617.631571428572</v>
       </c>
-      <c r="Q14" s="24">
+      <c r="Q14" s="37">
         <f t="shared" si="1"/>
         <v>88.2330816326531</v>
       </c>
-      <c r="R14" s="31">
+      <c r="R14" s="45">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="9">
+      <c r="A15" s="23">
         <v>10</v>
       </c>
-      <c r="B15" s="9" t="str">
+      <c r="B15" s="23" t="str">
         <f>Deskripsi!A11</f>
         <v>21.02.034</v>
       </c>
-      <c r="C15" s="10" t="str">
+      <c r="C15" s="24" t="str">
         <f>'ANGKA (Input Nilai)'!B11</f>
         <v>NIDA KHALWATUS SYAHIDAH</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" s="22">
+      <c r="D15" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="35">
         <f>'ANGKA (Input Nilai)'!C11</f>
         <v>83.5675</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="35">
         <f>'ANGKA (Input Nilai)'!E11</f>
         <v>92.295</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="35">
         <f>'ANGKA (Input Nilai)'!G11</f>
         <v>83.75</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="35">
         <f>'ANGKA (Input Nilai)'!I11</f>
         <v>86.75</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="35">
         <f>'ANGKA (Input Nilai)'!K11</f>
         <v>82.687</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="35">
         <f>'ANGKA (Input Nilai)'!M11</f>
         <v>78.6528571428572</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="35">
         <f>'ANGKA (Input Nilai)'!O11</f>
         <v>81.7235714285714</v>
       </c>
-      <c r="L15" s="22">
-        <v>80</v>
-      </c>
-      <c r="M15" s="22">
-        <v>80</v>
-      </c>
-      <c r="N15" s="22">
-        <v>80</v>
-      </c>
-      <c r="O15" s="22">
-        <v>80</v>
-      </c>
-      <c r="P15" s="7">
+      <c r="L15" s="35">
+        <v>80</v>
+      </c>
+      <c r="M15" s="35">
+        <v>80</v>
+      </c>
+      <c r="N15" s="35">
+        <v>80</v>
+      </c>
+      <c r="O15" s="35">
+        <v>80</v>
+      </c>
+      <c r="P15" s="43">
         <f t="shared" si="0"/>
         <v>589.425928571429</v>
       </c>
-      <c r="Q15" s="24">
+      <c r="Q15" s="37">
         <f t="shared" si="1"/>
         <v>84.2037040816327</v>
       </c>
-      <c r="R15" s="31">
+      <c r="R15" s="45">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="9">
+      <c r="A16" s="23">
         <v>11</v>
       </c>
-      <c r="B16" s="9" t="str">
+      <c r="B16" s="23" t="str">
         <f>Deskripsi!A12</f>
         <v>21.02.027</v>
       </c>
-      <c r="C16" s="12" t="str">
+      <c r="C16" s="26" t="str">
         <f>'ANGKA (Input Nilai)'!B12</f>
         <v>RIHAL MUHARRIKUL HAQ</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="22">
+      <c r="D16" s="26"/>
+      <c r="E16" s="35">
         <f>'ANGKA (Input Nilai)'!C12</f>
         <v>91.5075</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="35">
         <f>'ANGKA (Input Nilai)'!E12</f>
         <v>94.14</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="35">
         <f>'ANGKA (Input Nilai)'!G12</f>
         <v>85.1</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="35">
         <f>'ANGKA (Input Nilai)'!I12</f>
         <v>91.3571428571429</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="35">
         <f>'ANGKA (Input Nilai)'!K12</f>
         <v>91.3801428571429</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="35">
         <f>'ANGKA (Input Nilai)'!M12</f>
         <v>88.6057142857143</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="35">
         <f>'ANGKA (Input Nilai)'!O12</f>
         <v>88.38</v>
       </c>
-      <c r="L16" s="22">
-        <v>80</v>
-      </c>
-      <c r="M16" s="22">
-        <v>80</v>
-      </c>
-      <c r="N16" s="22">
-        <v>80</v>
-      </c>
-      <c r="O16" s="22">
-        <v>80</v>
-      </c>
-      <c r="P16" s="7">
+      <c r="L16" s="35">
+        <v>80</v>
+      </c>
+      <c r="M16" s="35">
+        <v>80</v>
+      </c>
+      <c r="N16" s="35">
+        <v>80</v>
+      </c>
+      <c r="O16" s="35">
+        <v>80</v>
+      </c>
+      <c r="P16" s="43">
         <f t="shared" si="0"/>
         <v>630.4705</v>
       </c>
-      <c r="Q16" s="24">
+      <c r="Q16" s="37">
         <f t="shared" si="1"/>
         <v>90.0672142857143</v>
       </c>
-      <c r="R16" s="33">
+      <c r="R16" s="47">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="14">
+      <c r="A17" s="27">
         <v>12</v>
       </c>
-      <c r="B17" s="15" t="str">
+      <c r="B17" s="28" t="str">
         <f>Deskripsi!A13</f>
         <v>21.02.036</v>
       </c>
-      <c r="C17" s="12" t="str">
+      <c r="C17" s="26" t="str">
         <f>'ANGKA (Input Nilai)'!B13</f>
         <v>SAFARAZ AUFA RIFDAH</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="22">
+      <c r="D17" s="26"/>
+      <c r="E17" s="35">
         <f>'ANGKA (Input Nilai)'!C13</f>
         <v>93.285</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="35">
         <f>'ANGKA (Input Nilai)'!E13</f>
         <v>94.5</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="35">
         <f>'ANGKA (Input Nilai)'!G13</f>
         <v>86</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="35">
         <f>'ANGKA (Input Nilai)'!I13</f>
         <v>91.3571428571429</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="35">
         <f>'ANGKA (Input Nilai)'!K13</f>
         <v>90.9751428571429</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="35">
         <f>'ANGKA (Input Nilai)'!M13</f>
         <v>89.6660714285714</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="35">
         <f>'ANGKA (Input Nilai)'!O13</f>
         <v>87.4714285714286</v>
       </c>
-      <c r="L17" s="22">
-        <v>80</v>
-      </c>
-      <c r="M17" s="22">
-        <v>80</v>
-      </c>
-      <c r="N17" s="22">
-        <v>80</v>
-      </c>
-      <c r="O17" s="22">
-        <v>80</v>
-      </c>
-      <c r="P17" s="23">
+      <c r="L17" s="35">
+        <v>80</v>
+      </c>
+      <c r="M17" s="35">
+        <v>80</v>
+      </c>
+      <c r="N17" s="35">
+        <v>80</v>
+      </c>
+      <c r="O17" s="35">
+        <v>80</v>
+      </c>
+      <c r="P17" s="43">
         <f t="shared" si="0"/>
         <v>633.254785714286</v>
       </c>
-      <c r="Q17" s="24">
+      <c r="Q17" s="37">
         <f t="shared" si="1"/>
         <v>90.4649693877551</v>
       </c>
-      <c r="R17" s="33">
+      <c r="R17" s="47">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="14">
+      <c r="A18" s="27">
         <v>13</v>
       </c>
-      <c r="B18" s="15" t="str">
+      <c r="B18" s="28" t="str">
         <f>Deskripsi!A14</f>
         <v>21.02.038</v>
       </c>
-      <c r="C18" s="10" t="str">
+      <c r="C18" s="24" t="str">
         <f>'ANGKA (Input Nilai)'!B14</f>
         <v>WALDAN FA'IQ HASAN</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" s="22">
+      <c r="D18" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="35">
         <f>'ANGKA (Input Nilai)'!C14</f>
         <v>87.5925</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="35">
         <f>'ANGKA (Input Nilai)'!E14</f>
         <v>93.69</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="35">
         <f>'ANGKA (Input Nilai)'!G14</f>
         <v>82.85</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="35">
         <f>'ANGKA (Input Nilai)'!I14</f>
         <v>91.3571428571429</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="35">
         <f>'ANGKA (Input Nilai)'!K14</f>
         <v>84.3997142857143</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="35">
         <f>'ANGKA (Input Nilai)'!M14</f>
         <v>85.0075</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="35">
         <f>'ANGKA (Input Nilai)'!O14</f>
         <v>88.92</v>
       </c>
-      <c r="L18" s="22">
-        <v>80</v>
-      </c>
-      <c r="M18" s="22">
-        <v>80</v>
-      </c>
-      <c r="N18" s="22">
-        <v>80</v>
-      </c>
-      <c r="O18" s="22">
-        <v>80</v>
-      </c>
-      <c r="P18" s="23">
+      <c r="L18" s="35">
+        <v>80</v>
+      </c>
+      <c r="M18" s="35">
+        <v>80</v>
+      </c>
+      <c r="N18" s="35">
+        <v>80</v>
+      </c>
+      <c r="O18" s="35">
+        <v>80</v>
+      </c>
+      <c r="P18" s="43">
         <f t="shared" si="0"/>
         <v>613.816857142857</v>
       </c>
-      <c r="Q18" s="24">
+      <c r="Q18" s="37">
         <f t="shared" si="1"/>
         <v>87.6881224489796</v>
       </c>
-      <c r="R18" s="31">
+      <c r="R18" s="45">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="23">
+      <c r="A19" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="36">
         <f t="shared" ref="E19:P19" si="3">AVERAGE(E6:E16)</f>
         <v>87.5543181818182</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="36">
         <f t="shared" si="3"/>
         <v>93.7022727272727</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="36">
         <f t="shared" si="3"/>
         <v>84.5022727272727</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="36">
         <f t="shared" ref="H19:O19" si="4">AVERAGE(H6:H16)</f>
         <v>89.1818181818182</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="36">
         <f t="shared" si="4"/>
         <v>86.5207792207792</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="36">
         <f t="shared" si="4"/>
         <v>82.7242857142857</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="36">
         <f t="shared" si="4"/>
         <v>85.3858441558442</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="36">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="36">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="N19" s="23">
+      <c r="N19" s="36">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="O19" s="23">
+      <c r="O19" s="36">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="P19" s="23">
+      <c r="P19" s="36">
         <f t="shared" si="3"/>
         <v>609.571590909091</v>
       </c>
-      <c r="Q19" s="24">
+      <c r="Q19" s="37">
         <f t="shared" si="1"/>
         <v>87.0816558441559</v>
       </c>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="24">
+      <c r="A20" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="37">
         <f t="shared" ref="E20:P20" si="5">MIN(E6:E16)</f>
         <v>79.0875</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="37">
         <f t="shared" si="5"/>
         <v>92.295</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="37">
         <f t="shared" si="5"/>
         <v>80.3</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="37">
         <f t="shared" ref="H20:O20" si="6">MIN(H6:H16)</f>
         <v>84.5</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="37">
         <f t="shared" si="6"/>
         <v>81.3514285714286</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="37">
         <f t="shared" si="6"/>
         <v>75.6071428571429</v>
       </c>
-      <c r="K20" s="24">
+      <c r="K20" s="37">
         <f t="shared" si="6"/>
         <v>80.3978571428571</v>
       </c>
-      <c r="L20" s="24">
+      <c r="L20" s="37">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="M20" s="24">
+      <c r="M20" s="37">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="N20" s="24">
+      <c r="N20" s="37">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="O20" s="24">
+      <c r="O20" s="37">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="P20" s="24">
+      <c r="P20" s="37">
         <f t="shared" si="5"/>
         <v>576.313928571429</v>
       </c>
-      <c r="Q20" s="24">
+      <c r="Q20" s="37">
         <f t="shared" si="1"/>
         <v>81.9341326530612</v>
       </c>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="24">
+      <c r="A21" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="37">
         <f t="shared" ref="E21:P21" si="7">MAX(E6:E16)</f>
         <v>94.095</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="37">
         <f t="shared" si="7"/>
         <v>94.365</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="37">
         <f t="shared" si="7"/>
         <v>87.55</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="37">
         <f t="shared" ref="H21:O21" si="8">MAX(H6:H16)</f>
         <v>91.75</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="37">
         <f t="shared" si="8"/>
         <v>91.3801428571429</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="37">
         <f t="shared" si="8"/>
         <v>88.6057142857143</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="37">
         <f t="shared" si="8"/>
         <v>88.38</v>
       </c>
-      <c r="L21" s="24">
+      <c r="L21" s="37">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="M21" s="24">
+      <c r="M21" s="37">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="N21" s="24">
+      <c r="N21" s="37">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="O21" s="24">
+      <c r="O21" s="37">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="P21" s="24">
+      <c r="P21" s="37">
         <f t="shared" si="7"/>
         <v>630.4705</v>
       </c>
-      <c r="Q21" s="24">
+      <c r="Q21" s="37">
         <f t="shared" si="1"/>
         <v>90.8751224489796</v>
       </c>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-    </row>
-    <row r="22" s="3" customFormat="1" spans="1:21">
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+    </row>
+    <row r="22" s="17" customFormat="1" spans="1:21">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
       <c r="R22"/>
       <c r="S22"/>
       <c r="T22"/>
       <c r="U22"/>
     </row>
-    <row r="23" s="4" customFormat="1" spans="1:21">
+    <row r="23" s="18" customFormat="1" spans="1:21">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -4765,9 +5112,9 @@
       <c r="T23"/>
       <c r="U23"/>
     </row>
-    <row r="24" s="4" customFormat="1" spans="1:21">
+    <row r="24" s="18" customFormat="1" spans="1:21">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B24"/>
       <c r="E24"/>
@@ -4787,18 +5134,18 @@
       <c r="U24"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="A25" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B31" s="17"/>
+      <c r="A31" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4820,19 +5167,28 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC28"/>
+  <dimension ref="A1:AM28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AM1" sqref="AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="27.425" customWidth="1"/>
+    <col min="2" max="2" width="33.75" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="26.625" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="28" max="28" width="18.375" customWidth="1"/>
+    <col min="29" max="29" width="16.5" customWidth="1"/>
+    <col min="30" max="30" width="12.375" customWidth="1"/>
+    <col min="31" max="31" width="13.375" customWidth="1"/>
+    <col min="32" max="32" width="12" customWidth="1"/>
+    <col min="33" max="33" width="13.375" customWidth="1"/>
+    <col min="34" max="34" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" ht="19.5" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4881,456 +5237,1622 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-    </row>
-    <row r="2" spans="1:29">
+    </row>
+    <row r="2" ht="15.75" spans="1:39">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-    </row>
-    <row r="3" spans="1:29">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1">
+        <v>79</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1">
+        <v>93</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1">
+        <v>82</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1">
+        <v>85</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="1">
+        <v>81</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="1">
+        <v>76</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="1">
+        <v>80</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>80</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="1">
+        <v>80</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="1">
+        <v>80</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" s="1">
+        <v>80</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>576</v>
+      </c>
+      <c r="Z2">
+        <v>82</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM2" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:39">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-    </row>
-    <row r="4" spans="1:29">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1">
+        <v>90</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1">
+        <v>94</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1">
+        <v>86</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1">
+        <v>89</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="1">
+        <v>87</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="1">
+        <v>85</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="1">
+        <v>86</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>80</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="1">
+        <v>80</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="1">
+        <v>80</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" s="1">
+        <v>80</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>617</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>88</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH3" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM3" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:39">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-    </row>
-    <row r="5" spans="1:29">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1">
+        <v>94</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1">
+        <v>94</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1">
+        <v>88</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1">
+        <v>92</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="1">
+        <v>89</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="1">
+        <v>86</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="1">
+        <v>87</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>80</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="1">
+        <v>80</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="1">
+        <v>80</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" s="1">
+        <v>80</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>630</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>90</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF4" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH4" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM4" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:39">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-    </row>
-    <row r="6" spans="1:29">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1">
+        <v>85</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1">
+        <v>93</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1">
+        <v>84</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1">
+        <v>90</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="1">
+        <v>89</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="1">
+        <v>79</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="1">
+        <v>86</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>80</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="1">
+        <v>80</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="1">
+        <v>80</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W5" s="1">
+        <v>80</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>605</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>86</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>9</v>
+      </c>
+      <c r="AB5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH5" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM5" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:39">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-    </row>
-    <row r="7" spans="1:29">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1">
+        <v>92</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1">
+        <v>94</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1">
+        <v>85</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1">
+        <v>89</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="1">
+        <v>88</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="1">
+        <v>84</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="1">
+        <v>88</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>80</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" s="1">
+        <v>80</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6" s="1">
+        <v>80</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W6" s="1">
+        <v>80</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>619</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>88</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH6" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ6" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM6" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:39">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-    </row>
-    <row r="8" spans="1:29">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1">
+        <v>84</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1">
+        <v>94</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="1">
+        <v>83</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1">
+        <v>90</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="1">
+        <v>87</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="1">
+        <v>82</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="1">
+        <v>83</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>80</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="1">
+        <v>80</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U7" s="1">
+        <v>80</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W7" s="1">
+        <v>80</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>602</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>86</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>10</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD7" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH7" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ7" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL7" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM7" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="1:39">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-    </row>
-    <row r="9" spans="1:29">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1">
+        <v>81</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1">
+        <v>93</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1">
+        <v>80</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="1">
+        <v>86</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="1">
+        <v>86</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="1">
+        <v>79</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="1">
+        <v>86</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>80</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" s="1">
+        <v>80</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U8" s="1">
+        <v>80</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W8" s="1">
+        <v>80</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>592</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>85</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>11</v>
+      </c>
+      <c r="AB8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH8" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ8" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL8" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM8" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:39">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-    </row>
-    <row r="10" spans="1:29">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1">
+        <v>92</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1">
+        <v>94</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1">
+        <v>86</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="1">
+        <v>91</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="1">
+        <v>87</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="1">
+        <v>87</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="1">
+        <v>87</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>80</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" s="1">
+        <v>80</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9" s="1">
+        <v>80</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W9" s="1">
+        <v>80</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>626</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>89</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD9" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG9" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH9" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM9" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:39">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-    </row>
-    <row r="11" spans="1:29">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1">
+        <v>92</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1">
+        <v>94</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1">
+        <v>86</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="1">
+        <v>91</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="1">
+        <v>84</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="1">
+        <v>84</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="1">
+        <v>86</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>80</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" s="1">
+        <v>80</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10" s="1">
+        <v>80</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W10" s="1">
+        <v>80</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>618</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>88</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD10" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG10" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH10" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM10" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="1:39">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-    </row>
-    <row r="12" spans="1:29">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1">
+        <v>84</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1">
+        <v>92</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="1">
+        <v>84</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="1">
+        <v>87</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="1">
+        <v>83</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="1">
+        <v>79</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="1">
+        <v>82</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>80</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S11" s="1">
+        <v>80</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U11" s="1">
+        <v>80</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W11" s="1">
+        <v>80</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>589</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>84</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD11" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF11" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG11" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH11" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL11" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM11" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="1:39">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-    </row>
-    <row r="13" spans="2:29">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="C12" s="1">
+        <v>92</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1">
+        <v>94</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1">
+        <v>85</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="1">
+        <v>91</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="1">
+        <v>91</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="1">
+        <v>89</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="1">
+        <v>88</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>80</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12" s="1">
+        <v>80</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U12" s="1">
+        <v>80</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W12" s="1">
+        <v>80</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>630</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>90</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG12" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH12" s="81" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ12" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM12" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" spans="1:39">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1">
+        <v>93</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1">
+        <v>95</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="1">
+        <v>86</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="1">
+        <v>91</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="1">
+        <v>91</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="1">
+        <v>90</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="1">
+        <v>87</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>80</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S13" s="1">
+        <v>80</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U13" s="1">
+        <v>80</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W13" s="1">
+        <v>80</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>633</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>90</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD13" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF13" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH13" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM13" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14">
+        <v>88</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14">
+        <v>94</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>83</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14">
+        <v>91</v>
+      </c>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14">
+        <v>84</v>
+      </c>
+      <c r="L14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14">
+        <v>85</v>
+      </c>
+      <c r="N14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14">
+        <v>89</v>
+      </c>
+      <c r="P14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q14">
+        <v>80</v>
+      </c>
+      <c r="R14" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14">
+        <v>80</v>
+      </c>
+      <c r="T14" t="s">
+        <v>29</v>
+      </c>
+      <c r="U14">
+        <v>80</v>
+      </c>
+      <c r="V14" t="s">
+        <v>29</v>
+      </c>
+      <c r="W14">
+        <v>80</v>
+      </c>
+      <c r="X14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y14">
+        <v>614</v>
+      </c>
+      <c r="Z14">
+        <v>88</v>
+      </c>
+      <c r="AA14">
+        <v>8</v>
+      </c>
+      <c r="AB14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD14" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH14" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM14" s="13" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1"/>
